--- a/product_data/processing_metadata/regression_test/PIG_meta_RT.xlsx
+++ b/product_data/processing_metadata/regression_test/PIG_meta_RT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kabaldry\OneDrive - University of Tasmania\Documents\Projects\BIO-MATE\BIO-MATE.v0\processing_metadata\regression_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/regression_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB7BE7C-0CE7-49FD-AA4B-7CF1A48BED56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{1FB7BE7C-0CE7-49FD-AA4B-7CF1A48BED56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFE22F57-A3E7-4568-91CA-DDDEAA608E08}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="670" windowWidth="19040" windowHeight="10130" activeTab="1" xr2:uid="{182192A8-E941-4269-BE15-A6758393A1A1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{182192A8-E941-4269-BE15-A6758393A1A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="3" r:id="rId1"/>
@@ -410,22 +410,13 @@
     <t>.sb</t>
   </si>
   <si>
-    <t>E:/Data_downloads/JGOFS/33RR19971020/HPLC_pigments</t>
-  </si>
-  <si>
     <t>comma</t>
   </si>
   <si>
     <t>%H:%M:%S %p</t>
   </si>
   <si>
-    <t>E:/Data_downloads/PAL-LTER/pigments/HPLC/33LG20070101</t>
-  </si>
-  <si>
     <t>33LG20131229</t>
-  </si>
-  <si>
-    <t>E:/Data_downloads/PAL-LTER/pigments/CHL/33LG20161230</t>
   </si>
   <si>
     <t>Event</t>
@@ -486,21 +477,12 @@
     <t>start_data_var</t>
   </si>
   <si>
-    <t>E:/Data_downloads/JGOFS/320619980225/phaeopigments</t>
-  </si>
-  <si>
     <t>%Y-%m-%d %H:%M:%S</t>
   </si>
   <si>
     <t>33RR20160208</t>
   </si>
   <si>
-    <t>E:/Data_downloads/SeaBASS/33RR20160208/HPLC</t>
-  </si>
-  <si>
-    <t>E:/Data_downloads/SeaBASS/33RO20071215/CHL</t>
-  </si>
-  <si>
     <t>header-/start_date</t>
   </si>
   <si>
@@ -582,18 +564,12 @@
     <t>%deg[DEG]</t>
   </si>
   <si>
-    <t>E:/Data_downloads/IMOS_SRS/09SS20130704/HPLC</t>
-  </si>
-  <si>
     <t>Cast.Number-uw</t>
   </si>
   <si>
     <t>06AQ20161216</t>
   </si>
   <si>
-    <t>E:/Data_downloads/PANGEAE/06AQ20161216/HPLC</t>
-  </si>
-  <si>
     <t>10.1594/PANGAEA.898941</t>
   </si>
   <si>
@@ -789,9 +765,6 @@
     <t>09FA19971125</t>
   </si>
   <si>
-    <t>E:/Data_downloads/AADC/HPLC/09AR20031208</t>
-  </si>
-  <si>
     <t>chlc2</t>
   </si>
   <si>
@@ -876,9 +849,6 @@
     <t>Phaeo</t>
   </si>
   <si>
-    <t>E:/Data_downloads/AADC/HPLC/09AR20070116</t>
-  </si>
-  <si>
     <t>19'ButFuco</t>
   </si>
   <si>
@@ -936,9 +906,6 @@
     <t>alpha_beta_Car</t>
   </si>
   <si>
-    <t>E:/Data_downloads/IMOS_SRS/09FA19971125/HPLC</t>
-  </si>
-  <si>
     <t>carotene_a</t>
   </si>
   <si>
@@ -1044,15 +1011,9 @@
     <t>.txt</t>
   </si>
   <si>
-    <t>E:/Data_downloads/SeaBASS/33RR20080204/HPLC</t>
-  </si>
-  <si>
     <t>Bottle Number</t>
   </si>
   <si>
-    <t>E:/Data_downloads/SeaBASS/096U20150320/HPLC</t>
-  </si>
-  <si>
     <t>Chl c1</t>
   </si>
   <si>
@@ -1074,15 +1035,9 @@
     <t>09SS19950114</t>
   </si>
   <si>
-    <t>E:/Data_downloads/IMOS_SRS/09SS19950114/HPLC</t>
-  </si>
-  <si>
     <t>09SS20060328</t>
   </si>
   <si>
-    <t>E:/Data_downloads/IMOS_SRS/09SS20060328/HPLC</t>
-  </si>
-  <si>
     <t>Divinyl.Chlorophyll.a</t>
   </si>
   <si>
@@ -1128,9 +1083,6 @@
     <t>320620060703</t>
   </si>
   <si>
-    <t>E:/Data_downloads/SeaBASS/320620060703/HPLC</t>
-  </si>
-  <si>
     <t>Greg Mitchell</t>
   </si>
   <si>
@@ -1143,15 +1095,9 @@
     <t>Chl_c1</t>
   </si>
   <si>
-    <t>E:/Data_downloads/SoFEX/33RR20020105/hplc</t>
-  </si>
-  <si>
     <t>.tsv</t>
   </si>
   <si>
-    <t>E:/Data_downloads/SoFEX/33RR20020105/chl</t>
-  </si>
-  <si>
     <t>SOFeX</t>
   </si>
   <si>
@@ -1191,9 +1137,6 @@
     <t>chlide_chl_a</t>
   </si>
   <si>
-    <t>E:/Data_downloads/NODC/320620060703/POC</t>
-  </si>
-  <si>
     <t>NODC</t>
   </si>
   <si>
@@ -1233,21 +1176,12 @@
     <t>HPLC</t>
   </si>
   <si>
-    <t>E:/Data_downloads/JGOFS/33RR19971020/chlorophyll_a</t>
-  </si>
-  <si>
     <t>JGOFS_1994</t>
   </si>
   <si>
-    <t>E:/Data_downloads/PAL-LTER/pigments/CHL/33LG20070101</t>
-  </si>
-  <si>
     <t>%Y %m %d</t>
   </si>
   <si>
-    <t>E:/Data_downloads/SeaBASS/33RO20071215/HPLC</t>
-  </si>
-  <si>
     <t>CastID</t>
   </si>
   <si>
@@ -1261,6 +1195,72 @@
   </si>
   <si>
     <t>cast</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/PANGEAE/06AQ20161216/HPLC</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/SeaBASS/096U20150320/HPLC</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/AADC/HPLC/09AR20031208</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/AADC/HPLC/09AR20070116</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/IMOS_SRS/09FA19971125/HPLC</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/IMOS_SRS/09SS19950114/HPLC</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/IMOS_SRS/09SS20060328/HPLC</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/IMOS_SRS/09SS20130704/HPLC</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/JGOFS/33RR19971020/chlorophyll_a</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/JGOFS/33RR19971020/HPLC_pigments</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/JGOFS/320619980225/phaeopigments</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/PAL-LTER/pigments/CHL/33LG20070101</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/PAL-LTER/pigments/HPLC/33LG20070101</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/PAL-LTER/pigments/CHL/33LG20161230</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/SeaBASS/33RR20160208/HPLC</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/SeaBASS/33RO20071215/CHL</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/SeaBASS/33RO20071215/HPLC</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/SeaBASS/33RR20080204/HPLC</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/SoFEX/33RR20020105/hplc</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/SoFEX/33RR20020105/chl</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/SeaBASS/320620060703/HPLC</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/NODC/320620060703/POC</t>
   </si>
 </sst>
 </file>
@@ -2459,8 +2459,8 @@
   <dimension ref="A1:BU93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2473,7 +2473,7 @@
   <sheetData>
     <row r="1" spans="1:73">
       <c r="A1" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>26</v>
@@ -2521,13 +2521,13 @@
         <v>36</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>45</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>41</v>
@@ -2560,133 +2560,133 @@
         <v>47</v>
       </c>
       <c r="AD1" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG1" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="AE1" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="AH1" s="5" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AK1" s="5" t="s">
         <v>117</v>
       </c>
       <c r="AL1" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AU1" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="AO1" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AY1" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="BA1" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="BB1" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="BE1" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="BF1" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="BG1" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BH1" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BI1" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BK1" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BL1" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BM1" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BN1" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BO1" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BP1" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BQ1" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BR1" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BS1" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BT1" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="BM1" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="BN1" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="BO1" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="BP1" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="BQ1" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="BR1" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="BS1" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="BT1" s="5" t="s">
-        <v>225</v>
       </c>
       <c r="BU1" s="5" t="s">
         <v>48</v>
@@ -2694,22 +2694,22 @@
     </row>
     <row r="2" spans="1:73" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>184</v>
+        <v>386</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>74</v>
@@ -2721,31 +2721,31 @@
         <v>75</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>89</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>94</v>
@@ -2757,7 +2757,7 @@
         <v>106</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>103</v>
@@ -2766,81 +2766,81 @@
         <v>112</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>117</v>
       </c>
       <c r="AL2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="BI2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AO2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BP2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BA2" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BS2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="BT2" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="BT2" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:73" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>337</v>
+        <v>387</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>122</v>
@@ -2849,10 +2849,10 @@
         <v>53</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>76</v>
@@ -2867,7 +2867,7 @@
         <v>79</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M3" s="1">
         <v>-9999</v>
@@ -2879,19 +2879,19 @@
         <v>90</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>97</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>107</v>
@@ -2900,7 +2900,7 @@
         <v>108</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>100</v>
@@ -2915,52 +2915,52 @@
         <v>113</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AZ3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BP3" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="BU3" s="1" t="s">
         <v>120</v>
@@ -2968,10 +2968,10 @@
     </row>
     <row r="4" spans="1:73" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>250</v>
+        <v>388</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>122</v>
@@ -2980,16 +2980,16 @@
         <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>63</v>
@@ -3004,7 +3004,7 @@
         <v>88</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>89</v>
@@ -3022,7 +3022,7 @@
         <v>96</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>39</v>
@@ -3034,7 +3034,7 @@
         <v>106</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>101</v>
@@ -3046,60 +3046,60 @@
         <v>116</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="AS4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BN4" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BP4" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="BE4" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="BN4" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="BO4" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="BP4" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:73" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>279</v>
+        <v>389</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>122</v>
@@ -3108,16 +3108,16 @@
         <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>63</v>
@@ -3132,7 +3132,7 @@
         <v>88</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>89</v>
@@ -3150,7 +3150,7 @@
         <v>96</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>39</v>
@@ -3162,10 +3162,10 @@
         <v>106</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>101</v>
@@ -3177,81 +3177,81 @@
         <v>117</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="AW5" s="1" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="AY5" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="BA5" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="BB5" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="BD5" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="BE5" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="BF5" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="BI5" s="1" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="BK5" s="1" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="BO5" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="BT5" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:73" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>299</v>
+        <v>390</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>122</v>
@@ -3260,19 +3260,19 @@
         <v>54</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>84</v>
@@ -3287,19 +3287,19 @@
         <v>89</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>96</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>96</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>105</v>
@@ -3308,7 +3308,7 @@
         <v>106</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>103</v>
@@ -3317,96 +3317,96 @@
         <v>111</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="AS6" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="BI6" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="AU6" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="AV6" s="1" t="s">
+      <c r="BM6" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="AW6" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="BC6" s="1" t="s">
+      <c r="BN6" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BD6" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BE6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BF6" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BH6" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="BI6" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="BJ6" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="BM6" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="BN6" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="BO6" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="BP6" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="BS6" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="BT6" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:73" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>345</v>
+        <v>391</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>122</v>
@@ -3415,19 +3415,19 @@
         <v>54</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>84</v>
@@ -3442,19 +3442,19 @@
         <v>89</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>96</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>96</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>105</v>
@@ -3463,7 +3463,7 @@
         <v>106</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>103</v>
@@ -3472,96 +3472,96 @@
         <v>111</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="AS7" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF7" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BH7" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="BI7" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="AU7" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="AV7" s="1" t="s">
+      <c r="BM7" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="AW7" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="AX7" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BB7" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="BC7" s="1" t="s">
+      <c r="BN7" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BD7" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BE7" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BF7" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BH7" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="BI7" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="BJ7" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="BM7" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="BN7" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="BO7" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="BP7" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="BS7" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="BT7" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:73" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>122</v>
@@ -3570,19 +3570,19 @@
         <v>54</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>84</v>
@@ -3594,25 +3594,25 @@
         <v>0</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>89</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>96</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>96</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>105</v>
@@ -3621,7 +3621,7 @@
         <v>106</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>103</v>
@@ -3630,96 +3630,96 @@
         <v>111</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="AS8" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AW8" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AZ8" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC8" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BD8" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BE8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BH8" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="BI8" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="BJ8" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="AU8" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="AV8" s="1" t="s">
+      <c r="BM8" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="AW8" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="AX8" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="AZ8" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="BA8" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BB8" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="BC8" s="1" t="s">
+      <c r="BN8" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BD8" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BE8" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BF8" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BH8" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="BI8" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="BJ8" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="BM8" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="BN8" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="BO8" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="BP8" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="BS8" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="BT8" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:73" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>181</v>
+        <v>393</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>122</v>
@@ -3728,19 +3728,19 @@
         <v>54</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>84</v>
@@ -3755,19 +3755,19 @@
         <v>89</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>96</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>96</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>105</v>
@@ -3776,7 +3776,7 @@
         <v>106</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>103</v>
@@ -3785,96 +3785,96 @@
         <v>111</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="AS9" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AW9" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AZ9" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="BA9" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BB9" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BD9" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BE9" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF9" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BH9" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="BI9" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="BJ9" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="AU9" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="AV9" s="1" t="s">
+      <c r="BM9" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="AW9" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="AX9" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AY9" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="AZ9" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="BA9" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BB9" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="BC9" s="1" t="s">
+      <c r="BN9" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BD9" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BE9" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BF9" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BH9" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="BI9" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="BJ9" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="BM9" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="BN9" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="BO9" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="BP9" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="BS9" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="BT9" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:73" s="5" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>122</v>
@@ -3886,7 +3886,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>61</v>
@@ -3895,7 +3895,7 @@
         <v>60</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>87</v>
@@ -3904,10 +3904,10 @@
         <v>89</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="AB10" s="5" t="s">
         <v>98</v>
@@ -3924,10 +3924,10 @@
     </row>
     <row r="11" spans="1:73" s="1" customFormat="1">
       <c r="A11" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>124</v>
+        <v>395</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>122</v>
@@ -3939,7 +3939,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>59</v>
@@ -3948,7 +3948,7 @@
         <v>60</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>87</v>
@@ -3957,10 +3957,10 @@
         <v>89</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="AB11" s="1" t="s">
         <v>98</v>
@@ -3969,75 +3969,75 @@
         <v>99</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="AH11" s="1" t="s">
         <v>115</v>
       </c>
       <c r="AK11" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AV11" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AW11" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AY11" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AZ11" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="BA11" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="BB11" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AL11" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="AN11" s="1" t="s">
+      <c r="BD11" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="BE11" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BF11" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="AO11" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="AV11" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="AW11" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="AY11" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="AZ11" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="BA11" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="BB11" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="BD11" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="BE11" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="BF11" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="BH11" s="1" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="BI11" s="1" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="BJ11" s="1" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="BK11" s="1" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="BO11" s="1" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="BP11" s="1" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:73" s="1" customFormat="1">
       <c r="A12" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>149</v>
+        <v>396</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>122</v>
@@ -4049,7 +4049,7 @@
         <v>320619980225</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>61</v>
@@ -4067,10 +4067,10 @@
         <v>89</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="AB12" s="1" t="s">
         <v>98</v>
@@ -4085,15 +4085,15 @@
         <v>109</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:73" s="5" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>122</v>
@@ -4105,7 +4105,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>70</v>
@@ -4123,25 +4123,25 @@
         <v>-999</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="P13" s="5" t="s">
         <v>90</v>
       </c>
       <c r="R13" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="T13" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="T13" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="U13" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Y13" s="5" t="s">
         <v>105</v>
@@ -4150,7 +4150,7 @@
         <v>106</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AB13" s="5" t="s">
         <v>102</v>
@@ -4165,15 +4165,15 @@
         <v>110</v>
       </c>
       <c r="AF13" s="5" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:73" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>127</v>
+        <v>398</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>122</v>
@@ -4185,7 +4185,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>67</v>
@@ -4203,25 +4203,25 @@
         <v>-999</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>90</v>
       </c>
       <c r="R14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T14" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="T14" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="U14" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>105</v>
@@ -4230,7 +4230,7 @@
         <v>106</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AB14" s="1" t="s">
         <v>102</v>
@@ -4242,78 +4242,78 @@
         <v>112</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="AU14" s="1" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="AW14" s="1" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="AY14" s="1" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="AZ14" s="1" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="BA14" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="BB14" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="BC14" s="1" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="BD14" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="BE14" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="BF14" s="1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="BH14" s="1" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="BI14" s="1" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="BJ14" s="1" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="BN14" s="1" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="BO14" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="BP14" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="BS14" s="1" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="BT14" s="1" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:73" s="1" customFormat="1">
       <c r="A15" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>129</v>
+        <v>399</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>122</v>
@@ -4325,7 +4325,7 @@
         <v>15</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>70</v>
@@ -4343,25 +4343,25 @@
         <v>-999</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>90</v>
       </c>
       <c r="R15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T15" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="T15" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="U15" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>105</v>
@@ -4370,7 +4370,7 @@
         <v>106</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AB15" s="1" t="s">
         <v>102</v>
@@ -4385,15 +4385,15 @@
         <v>110</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:73" s="1" customFormat="1">
       <c r="A16" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>152</v>
+        <v>400</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>122</v>
@@ -4402,10 +4402,10 @@
         <v>53</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>76</v>
@@ -4420,7 +4420,7 @@
         <v>79</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="M16" s="1">
         <v>-9999</v>
@@ -4432,19 +4432,19 @@
         <v>90</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>97</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>107</v>
@@ -4453,7 +4453,7 @@
         <v>108</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AB16" s="1" t="s">
         <v>100</v>
@@ -4468,64 +4468,64 @@
         <v>113</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="AL16" s="1" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="AW16" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AY16" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AZ16" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BB16" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC16" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BD16" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BE16" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF16" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="BH16" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="BM16" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="BN16" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BO16" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BP16" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BA16" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BB16" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="BC16" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BD16" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BE16" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BF16" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="BH16" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="BM16" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="BN16" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="BO16" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="BP16" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="BS16" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="BT16" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="BU16" s="1" t="s">
         <v>121</v>
@@ -4533,10 +4533,10 @@
     </row>
     <row r="17" spans="1:73" s="5" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>152</v>
+        <v>400</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>123</v>
@@ -4545,10 +4545,10 @@
         <v>53</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>81</v>
@@ -4563,7 +4563,7 @@
         <v>80</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="M17" s="5">
         <v>-9999</v>
@@ -4575,19 +4575,19 @@
         <v>90</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="T17" s="5" t="s">
         <v>92</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="V17" s="5" t="s">
         <v>97</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Y17" s="5" t="s">
         <v>107</v>
@@ -4596,7 +4596,7 @@
         <v>108</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AC17" s="5" t="s">
         <v>104</v>
@@ -4608,70 +4608,70 @@
         <v>113</v>
       </c>
       <c r="AJ17" s="5" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="AK17" s="5" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="AL17" s="5" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="AO17" s="5" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="AP17" s="5" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="AR17" s="5" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="AW17" s="5" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AY17" s="5" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AZ17" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA17" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="BB17" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC17" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="BD17" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="BE17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF17" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="BH17" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="BM17" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="BN17" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="BO17" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="BP17" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="BA17" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="BB17" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="BC17" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="BD17" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="BE17" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="BF17" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="BH17" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="BM17" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="BN17" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="BO17" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="BP17" s="5" t="s">
-        <v>237</v>
-      </c>
       <c r="BS17" s="5" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="BT17" s="5" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="BU17" s="5" t="s">
         <v>121</v>
@@ -4679,10 +4679,10 @@
     </row>
     <row r="18" spans="1:73" s="1" customFormat="1">
       <c r="A18" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>153</v>
+        <v>401</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>123</v>
@@ -4694,7 +4694,7 @@
         <v>25</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>81</v>
@@ -4709,10 +4709,10 @@
         <v>80</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M18" s="1">
         <v>-999</v>
@@ -4721,31 +4721,31 @@
         <v>90</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>95</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>104</v>
@@ -4754,12 +4754,12 @@
         <v>114</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:73" s="5" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>402</v>
@@ -4774,7 +4774,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>81</v>
@@ -4789,10 +4789,10 @@
         <v>80</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M19" s="5">
         <v>-9999</v>
@@ -4801,31 +4801,31 @@
         <v>1E-4</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="P19" s="5" t="s">
         <v>90</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="U19" s="5" t="s">
         <v>95</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AD19" s="5" t="s">
         <v>111</v>
@@ -4834,70 +4834,70 @@
         <v>113</v>
       </c>
       <c r="AJ19" s="5" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="AK19" s="5" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="AL19" s="5" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="AO19" s="5" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="AP19" s="5" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="AR19" s="5" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="AW19" s="5" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AY19" s="5" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AZ19" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA19" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="BB19" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC19" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="BD19" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="BE19" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF19" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="BH19" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="BM19" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="BN19" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="BO19" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="BP19" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="BA19" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="BB19" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="BC19" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="BD19" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="BE19" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="BF19" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="BH19" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="BM19" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="BN19" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="BO19" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="BP19" s="5" t="s">
-        <v>237</v>
-      </c>
       <c r="BS19" s="5" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="BT19" s="5" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="BU19" s="5" t="s">
         <v>121</v>
@@ -4905,37 +4905,37 @@
     </row>
     <row r="20" spans="1:73" s="1" customFormat="1">
       <c r="A20" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>335</v>
+        <v>403</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>80</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="M20" s="1">
         <v>-9999</v>
@@ -4947,7 +4947,7 @@
         <v>90</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>92</v>
@@ -4959,7 +4959,7 @@
         <v>97</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>107</v>
@@ -4968,7 +4968,7 @@
         <v>108</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AC20" s="1" t="s">
         <v>104</v>
@@ -4980,70 +4980,70 @@
         <v>113</v>
       </c>
       <c r="AJ20" s="1" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="AK20" s="1" t="s">
         <v>118</v>
       </c>
       <c r="AL20" s="1" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="AP20" s="1" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="AR20" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="AW20" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AY20" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AZ20" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BB20" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC20" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BD20" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BE20" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF20" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BH20" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="BM20" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="BN20" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BO20" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BP20" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BA20" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BB20" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="BC20" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BD20" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BE20" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BF20" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BH20" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="BM20" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="BN20" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="BO20" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="BP20" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="BS20" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="BT20" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="BU20" s="1" t="s">
         <v>121</v>
@@ -5051,40 +5051,40 @@
     </row>
     <row r="21" spans="1:73" s="1" customFormat="1">
       <c r="A21" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>90</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>92</v>
@@ -5096,7 +5096,7 @@
         <v>97</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>107</v>
@@ -5105,7 +5105,7 @@
         <v>108</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AB21" s="1" t="s">
         <v>98</v>
@@ -5114,84 +5114,84 @@
         <v>104</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="AH21" s="1" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="AK21" s="1" t="s">
         <v>119</v>
       </c>
       <c r="AL21" s="1" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="AO21" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="AQ21" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="AY21" s="1" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="AZ21" s="1" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="BA21" s="1" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="BB21" s="1" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="BD21" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="BJ21" s="1" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="BO21" s="1" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="BP21" s="1" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:73" s="1" customFormat="1">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>90</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>107</v>
@@ -5200,10 +5200,10 @@
         <v>108</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>104</v>
@@ -5212,48 +5212,48 @@
         <v>111</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="AF22" s="1" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:73" s="1" customFormat="1">
       <c r="A23" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>77</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M23" s="1">
         <v>-999</v>
@@ -5265,7 +5265,7 @@
         <v>90</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>92</v>
@@ -5277,7 +5277,7 @@
         <v>97</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>107</v>
@@ -5286,7 +5286,7 @@
         <v>108</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>104</v>
@@ -5298,99 +5298,99 @@
         <v>113</v>
       </c>
       <c r="AJ23" s="1" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="AK23" s="1" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="AL23" s="1" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="AO23" s="1" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="AP23" s="1" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="AS23" s="1" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="AU23" s="1" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="AW23" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AY23" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AZ23" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BB23" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC23" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BD23" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BE23" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF23" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BH23" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="BN23" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BO23" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BP23" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BA23" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BB23" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="BC23" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BD23" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BE23" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BF23" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BH23" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="BN23" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="BO23" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="BP23" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="BS23" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="BT23" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:73">
       <c r="A24" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="M24" s="1">
         <v>-999</v>
@@ -5402,40 +5402,40 @@
         <v>90</v>
       </c>
       <c r="R24" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="AD24" s="1" t="s">
         <v>111</v>
       </c>
       <c r="AE24" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:73">
@@ -5673,10 +5673,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5751,7 +5751,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -5814,12 +5814,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6001,15 +5998,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5515A6BA-2F84-4DE9-99CA-C1D09E83DEB0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F36667E2-7954-4E16-8F9D-F27CDF186C37}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e20472b3-c705-44f8-bba6-767e7adb5a1e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6033,17 +6041,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F36667E2-7954-4E16-8F9D-F27CDF186C37}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5515A6BA-2F84-4DE9-99CA-C1D09E83DEB0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e20472b3-c705-44f8-bba6-767e7adb5a1e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/product_data/processing_metadata/regression_test/PIG_meta_RT.xlsx
+++ b/product_data/processing_metadata/regression_test/PIG_meta_RT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/regression_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{1FB7BE7C-0CE7-49FD-AA4B-7CF1A48BED56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFE22F57-A3E7-4568-91CA-DDDEAA608E08}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{1FB7BE7C-0CE7-49FD-AA4B-7CF1A48BED56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{442DD13A-8CB4-46BA-9EE7-E59FDB0D8498}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{182192A8-E941-4269-BE15-A6758393A1A1}"/>
+    <workbookView minimized="1" xWindow="2930" yWindow="1390" windowWidth="12800" windowHeight="6800" activeTab="1" xr2:uid="{182192A8-E941-4269-BE15-A6758393A1A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="427">
   <si>
     <t>EXPOCODE</t>
   </si>
@@ -1197,70 +1197,127 @@
     <t>cast</t>
   </si>
   <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/PANGEAE/06AQ20161216/HPLC</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/SeaBASS/096U20150320/HPLC</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/AADC/HPLC/09AR20031208</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/AADC/HPLC/09AR20070116</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/IMOS_SRS/09FA19971125/HPLC</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/IMOS_SRS/09SS19950114/HPLC</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/IMOS_SRS/09SS20060328/HPLC</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/IMOS_SRS/09SS20130704/HPLC</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/JGOFS/33RR19971020/chlorophyll_a</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/JGOFS/33RR19971020/HPLC_pigments</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/JGOFS/320619980225/phaeopigments</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/PAL-LTER/pigments/CHL/33LG20070101</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/PAL-LTER/pigments/HPLC/33LG20070101</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/PAL-LTER/pigments/CHL/33LG20161230</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/SeaBASS/33RR20160208/HPLC</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/SeaBASS/33RO20071215/CHL</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/SeaBASS/33RO20071215/HPLC</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/SeaBASS/33RR20080204/HPLC</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/SoFEX/33RR20020105/hplc</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/SoFEX/33RR20020105/chl</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/SeaBASS/320620060703/HPLC</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/NODC/320620060703/POC</t>
+    <t>./product_data/regression_test/downloaded_data/PANGEAE/06AQ20161216/HPLC</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/SeaBASS/096U20150320/HPLC</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/AADC/HPLC/09AR20031208</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/AADC/HPLC/09AR20070116</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/IMOS_SRS/09FA19971125/HPLC</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/IMOS_SRS/09SS19950114/HPLC</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/IMOS_SRS/09SS20060328/HPLC</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/IMOS_SRS/09SS20130704/HPLC</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/JGOFS/33RR19971020/chlorophyll_a</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/JGOFS/33RR19971020/HPLC_pigments</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/JGOFS/320619980225/phaeopigments</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/PAL-LTER/pigments/CHL/33LG20070101</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/PAL-LTER/pigments/HPLC/33LG20070101</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/PAL-LTER/pigments/CHL/33LG20161230</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/SeaBASS/33RR20160208/HPLC</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/SeaBASS/33RO20071215/CHL</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/SeaBASS/33RO20071215/HPLC</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/SeaBASS/33RR20080204/HPLC</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/SoFEX/33RR20020105/hplc</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/SoFEX/33RR20020105/chl</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/SeaBASS/320620060703/HPLC</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/NODC/320620060703/POC</t>
+  </si>
+  <si>
+    <t>citation</t>
+  </si>
+  <si>
+    <t>06AQ20161216_pig</t>
+  </si>
+  <si>
+    <t>33RR20020105_pig</t>
+  </si>
+  <si>
+    <t>33RR20020105_pig; 33RR20020105_fluor</t>
+  </si>
+  <si>
+    <t>CLIVAR</t>
+  </si>
+  <si>
+    <t>SOCCOM_pig</t>
+  </si>
+  <si>
+    <t>320619980225_pig</t>
+  </si>
+  <si>
+    <t>PAL-LTER_pig_chl</t>
+  </si>
+  <si>
+    <t>09SS19950114_pig</t>
+  </si>
+  <si>
+    <t>09SS20060328_pig</t>
+  </si>
+  <si>
+    <t>09AR20031208_pig</t>
+  </si>
+  <si>
+    <t>09FA19971125_pig</t>
+  </si>
+  <si>
+    <t>09SS20130704_pig</t>
+  </si>
+  <si>
+    <t>320620060703_pig</t>
+  </si>
+  <si>
+    <t>320620060703_poc</t>
+  </si>
+  <si>
+    <t>09AR20070116_pig</t>
+  </si>
+  <si>
+    <t>33RR19971020_pig_fluor</t>
+  </si>
+  <si>
+    <t>33RR19971020_pig_hplc</t>
+  </si>
+  <si>
+    <t>PAL-LTER_pig_hplc</t>
   </si>
 </sst>
 </file>
@@ -2456,22 +2513,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4672EF9E-F94B-4EA2-AAA3-F328B5444130}">
-  <dimension ref="A1:BU93"/>
+  <dimension ref="A1:BV93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="3" max="3" width="13.90625" customWidth="1"/>
     <col min="5" max="5" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.7265625" style="5"/>
-    <col min="33" max="33" width="8.7265625" style="5"/>
+    <col min="11" max="11" width="8.7265625" style="5"/>
+    <col min="31" max="31" width="8.7265625" style="5"/>
+    <col min="34" max="34" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73">
+    <row r="1" spans="1:74">
       <c r="A1" s="5" t="s">
         <v>142</v>
       </c>
@@ -2502,197 +2560,200 @@
       <c r="J1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AY1" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BA1" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BB1" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BE1" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BF1" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BG1" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BH1" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BI1" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BK1" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BL1" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BM1" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="BM1" s="5" t="s">
+      <c r="BN1" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="BN1" s="5" t="s">
+      <c r="BO1" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="BO1" s="5" t="s">
+      <c r="BP1" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="BP1" s="5" t="s">
+      <c r="BQ1" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="BQ1" s="5" t="s">
+      <c r="BR1" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="BR1" s="5" t="s">
+      <c r="BS1" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="BS1" s="5" t="s">
+      <c r="BT1" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="BT1" s="5" t="s">
+      <c r="BU1" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="BU1" s="5" t="s">
+      <c r="BV1" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:73" s="1" customFormat="1">
+    <row r="2" spans="1:74" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>143</v>
       </c>
@@ -2724,118 +2785,121 @@
         <v>177</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>0</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="BN2" s="1" t="s">
+      <c r="BO2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BO2" s="1" t="s">
+      <c r="BP2" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BS2" s="1" t="s">
+      <c r="BT2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="BT2" s="1" t="s">
+      <c r="BU2" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:73" s="1" customFormat="1">
+    <row r="3" spans="1:74" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>143</v>
       </c>
@@ -2867,106 +2931,109 @@
         <v>79</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>-9999</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>-8888</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BA3" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BC3" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BD3" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BE3" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BF3" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BH3" s="1" t="s">
+      <c r="BI3" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="BN3" s="1" t="s">
+      <c r="BO3" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BO3" s="1" t="s">
+      <c r="BP3" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BP3" s="1" t="s">
+      <c r="BQ3" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BU3" s="1" t="s">
+      <c r="BV3" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:73" s="1" customFormat="1">
+    <row r="4" spans="1:74" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>143</v>
       </c>
@@ -2998,103 +3065,106 @@
         <v>64</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AH4" s="1" t="s">
+      <c r="AI4" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AO4" s="1" t="s">
+      <c r="AP4" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="AS4" s="1" t="s">
+      <c r="AT4" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AU4" s="1" t="s">
+      <c r="AV4" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="AW4" s="1" t="s">
+      <c r="AX4" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="AX4" s="1" t="s">
+      <c r="AY4" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="AY4" s="1" t="s">
+      <c r="AZ4" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="AZ4" s="1" t="s">
+      <c r="BA4" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="BA4" s="1" t="s">
+      <c r="BB4" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BB4" s="1" t="s">
+      <c r="BC4" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="BC4" s="1" t="s">
+      <c r="BD4" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="BD4" s="1" t="s">
+      <c r="BE4" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="BE4" s="1" t="s">
+      <c r="BF4" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="BH4" s="1" t="s">
+      <c r="BI4" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="BN4" s="1" t="s">
+      <c r="BO4" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="BO4" s="1" t="s">
+      <c r="BP4" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="BP4" s="1" t="s">
+      <c r="BQ4" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:73" s="1" customFormat="1">
+    <row r="5" spans="1:74" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>143</v>
       </c>
@@ -3126,127 +3196,130 @@
         <v>66</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AE5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AK5" s="1" t="s">
+      <c r="AL5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AL5" s="1" t="s">
+      <c r="AM5" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AN5" s="1" t="s">
+      <c r="AO5" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="AO5" s="1" t="s">
+      <c r="AP5" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="AS5" s="1" t="s">
+      <c r="AT5" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="AU5" s="1" t="s">
+      <c r="AV5" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="AW5" s="1" t="s">
+      <c r="AX5" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="AX5" s="1" t="s">
+      <c r="AY5" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="AY5" s="1" t="s">
+      <c r="AZ5" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="AZ5" s="1" t="s">
+      <c r="BA5" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="BA5" s="1" t="s">
+      <c r="BB5" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="BB5" s="1" t="s">
+      <c r="BC5" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="BC5" s="1" t="s">
+      <c r="BD5" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="BD5" s="1" t="s">
+      <c r="BE5" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="BE5" s="1" t="s">
+      <c r="BF5" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="BF5" s="1" t="s">
+      <c r="BG5" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BH5" s="1" t="s">
+      <c r="BI5" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="BI5" s="1" t="s">
+      <c r="BJ5" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="BJ5" s="1" t="s">
+      <c r="BK5" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="BK5" s="1" t="s">
+      <c r="BL5" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="BN5" s="1" t="s">
+      <c r="BO5" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="BO5" s="1" t="s">
+      <c r="BP5" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BP5" s="1" t="s">
+      <c r="BQ5" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BT5" s="1" t="s">
+      <c r="BU5" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:73" s="1" customFormat="1">
+    <row r="6" spans="1:74" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>143</v>
       </c>
@@ -3275,133 +3348,136 @@
         <v>165</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>-999</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>0</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AH6" s="1" t="s">
+      <c r="AI6" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AJ6" s="1" t="s">
+      <c r="AK6" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="AK6" s="1" t="s">
+      <c r="AL6" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="AL6" s="1" t="s">
+      <c r="AM6" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="AO6" s="1" t="s">
+      <c r="AP6" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="AP6" s="1" t="s">
+      <c r="AQ6" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="AS6" s="1" t="s">
+      <c r="AT6" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="AU6" s="1" t="s">
+      <c r="AV6" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="AV6" s="1" t="s">
+      <c r="AW6" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="AW6" s="1" t="s">
+      <c r="AX6" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="AX6" s="1" t="s">
+      <c r="AY6" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AY6" s="1" t="s">
+      <c r="AZ6" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="AZ6" s="1" t="s">
+      <c r="BA6" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="BA6" s="1" t="s">
+      <c r="BB6" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="BB6" s="1" t="s">
+      <c r="BC6" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="BC6" s="1" t="s">
+      <c r="BD6" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="BD6" s="1" t="s">
+      <c r="BE6" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BE6" s="1" t="s">
+      <c r="BF6" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BF6" s="1" t="s">
+      <c r="BG6" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BH6" s="1" t="s">
+      <c r="BI6" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="BI6" s="1" t="s">
+      <c r="BJ6" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="BJ6" s="1" t="s">
+      <c r="BK6" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="BM6" s="1" t="s">
+      <c r="BN6" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="BN6" s="1" t="s">
+      <c r="BO6" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BO6" s="1" t="s">
+      <c r="BP6" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BP6" s="1" t="s">
+      <c r="BQ6" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BS6" s="1" t="s">
+      <c r="BT6" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="BT6" s="1" t="s">
+      <c r="BU6" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:73" s="1" customFormat="1">
+    <row r="7" spans="1:74" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
         <v>143</v>
       </c>
@@ -3430,133 +3506,136 @@
         <v>165</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>-999</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>0</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AB7" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AE7" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AH7" s="1" t="s">
+      <c r="AI7" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AJ7" s="1" t="s">
+      <c r="AK7" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="AK7" s="1" t="s">
+      <c r="AL7" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="AL7" s="1" t="s">
+      <c r="AM7" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="AO7" s="1" t="s">
+      <c r="AP7" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="AP7" s="1" t="s">
+      <c r="AQ7" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="AS7" s="1" t="s">
+      <c r="AT7" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="AU7" s="1" t="s">
+      <c r="AV7" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="AV7" s="1" t="s">
+      <c r="AW7" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="AW7" s="1" t="s">
+      <c r="AX7" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="AX7" s="1" t="s">
+      <c r="AY7" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AY7" s="1" t="s">
+      <c r="AZ7" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="AZ7" s="1" t="s">
+      <c r="BA7" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="BA7" s="1" t="s">
+      <c r="BB7" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="BB7" s="1" t="s">
+      <c r="BC7" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="BC7" s="1" t="s">
+      <c r="BD7" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="BD7" s="1" t="s">
+      <c r="BE7" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BE7" s="1" t="s">
+      <c r="BF7" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BF7" s="1" t="s">
+      <c r="BG7" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BH7" s="1" t="s">
+      <c r="BI7" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="BI7" s="1" t="s">
+      <c r="BJ7" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="BJ7" s="1" t="s">
+      <c r="BK7" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="BM7" s="1" t="s">
+      <c r="BN7" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="BN7" s="1" t="s">
+      <c r="BO7" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BO7" s="1" t="s">
+      <c r="BP7" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BP7" s="1" t="s">
+      <c r="BQ7" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BS7" s="1" t="s">
+      <c r="BT7" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="BT7" s="1" t="s">
+      <c r="BU7" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="1:73" s="1" customFormat="1">
+    <row r="8" spans="1:74" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
         <v>143</v>
       </c>
@@ -3585,136 +3664,139 @@
         <v>167</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>-999</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>0</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AB8" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AH8" s="1" t="s">
+      <c r="AI8" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AJ8" s="1" t="s">
+      <c r="AK8" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="AK8" s="1" t="s">
+      <c r="AL8" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="AL8" s="1" t="s">
+      <c r="AM8" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="AO8" s="1" t="s">
+      <c r="AP8" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="AP8" s="1" t="s">
+      <c r="AQ8" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="AS8" s="1" t="s">
+      <c r="AT8" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="AU8" s="1" t="s">
+      <c r="AV8" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="AV8" s="1" t="s">
+      <c r="AW8" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="AW8" s="1" t="s">
+      <c r="AX8" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="AX8" s="1" t="s">
+      <c r="AY8" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AY8" s="1" t="s">
+      <c r="AZ8" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="AZ8" s="1" t="s">
+      <c r="BA8" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="BA8" s="1" t="s">
+      <c r="BB8" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="BB8" s="1" t="s">
+      <c r="BC8" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="BC8" s="1" t="s">
+      <c r="BD8" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="BD8" s="1" t="s">
+      <c r="BE8" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BE8" s="1" t="s">
+      <c r="BF8" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BF8" s="1" t="s">
+      <c r="BG8" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BH8" s="1" t="s">
+      <c r="BI8" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="BI8" s="1" t="s">
+      <c r="BJ8" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="BJ8" s="1" t="s">
+      <c r="BK8" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="BM8" s="1" t="s">
+      <c r="BN8" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="BN8" s="1" t="s">
+      <c r="BO8" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BO8" s="1" t="s">
+      <c r="BP8" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BP8" s="1" t="s">
+      <c r="BQ8" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BS8" s="1" t="s">
+      <c r="BT8" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="BT8" s="1" t="s">
+      <c r="BU8" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:73" s="1" customFormat="1">
+    <row r="9" spans="1:74" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
         <v>143</v>
       </c>
@@ -3743,133 +3825,136 @@
         <v>169</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>-999</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>0</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="Z9" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="AA9" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AA9" s="1" t="s">
+      <c r="AB9" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AD9" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AD9" s="1" t="s">
+      <c r="AE9" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AH9" s="1" t="s">
+      <c r="AI9" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AJ9" s="1" t="s">
+      <c r="AK9" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="AK9" s="1" t="s">
+      <c r="AL9" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="AL9" s="1" t="s">
+      <c r="AM9" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="AO9" s="1" t="s">
+      <c r="AP9" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="AP9" s="1" t="s">
+      <c r="AQ9" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="AS9" s="1" t="s">
+      <c r="AT9" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="AU9" s="1" t="s">
+      <c r="AV9" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="AV9" s="1" t="s">
+      <c r="AW9" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="AW9" s="1" t="s">
+      <c r="AX9" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="AX9" s="1" t="s">
+      <c r="AY9" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AY9" s="1" t="s">
+      <c r="AZ9" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="AZ9" s="1" t="s">
+      <c r="BA9" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="BA9" s="1" t="s">
+      <c r="BB9" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="BB9" s="1" t="s">
+      <c r="BC9" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="BC9" s="1" t="s">
+      <c r="BD9" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="BD9" s="1" t="s">
+      <c r="BE9" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BE9" s="1" t="s">
+      <c r="BF9" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BF9" s="1" t="s">
+      <c r="BG9" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BH9" s="1" t="s">
+      <c r="BI9" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="BI9" s="1" t="s">
+      <c r="BJ9" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="BJ9" s="1" t="s">
+      <c r="BK9" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="BM9" s="1" t="s">
+      <c r="BN9" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="BN9" s="1" t="s">
+      <c r="BO9" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BO9" s="1" t="s">
+      <c r="BP9" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BP9" s="1" t="s">
+      <c r="BQ9" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BS9" s="1" t="s">
+      <c r="BT9" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="BT9" s="1" t="s">
+      <c r="BU9" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:73" s="5" customFormat="1">
+    <row r="10" spans="1:74" s="5" customFormat="1">
       <c r="A10" s="5" t="s">
         <v>143</v>
       </c>
@@ -3894,35 +3979,38 @@
       <c r="I10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="N10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="Q10" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="S10" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="T10" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="AB10" s="5" t="s">
+      <c r="AC10" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AC10" s="5" t="s">
+      <c r="AD10" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AD10" s="5" t="s">
+      <c r="AE10" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AE10" s="5" t="s">
+      <c r="AF10" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:73" s="1" customFormat="1">
+    <row r="11" spans="1:74" s="1" customFormat="1">
       <c r="A11" s="1" t="s">
         <v>143</v>
       </c>
@@ -3948,91 +4036,94 @@
         <v>60</v>
       </c>
       <c r="K11" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="S11" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="T11" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="AB11" s="1" t="s">
+      <c r="AC11" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AC11" s="1" t="s">
+      <c r="AD11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AD11" s="1" t="s">
+      <c r="AE11" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="AH11" s="1" t="s">
+      <c r="AI11" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AK11" s="1" t="s">
+      <c r="AL11" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="AL11" s="1" t="s">
+      <c r="AM11" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AN11" s="1" t="s">
+      <c r="AO11" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AO11" s="1" t="s">
+      <c r="AP11" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="AV11" s="1" t="s">
+      <c r="AW11" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AW11" s="1" t="s">
+      <c r="AX11" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AY11" s="1" t="s">
+      <c r="AZ11" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AZ11" s="1" t="s">
+      <c r="BA11" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="BA11" s="1" t="s">
+      <c r="BB11" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="BB11" s="1" t="s">
+      <c r="BC11" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="BD11" s="1" t="s">
+      <c r="BE11" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="BE11" s="1" t="s">
+      <c r="BF11" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="BF11" s="1" t="s">
+      <c r="BG11" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="BH11" s="1" t="s">
+      <c r="BI11" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="BI11" s="1" t="s">
+      <c r="BJ11" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="BJ11" s="1" t="s">
+      <c r="BK11" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="BK11" s="1" t="s">
+      <c r="BL11" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="BO11" s="1" t="s">
+      <c r="BP11" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="BP11" s="1" t="s">
+      <c r="BQ11" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="12" spans="1:73" s="1" customFormat="1">
+    <row r="12" spans="1:74" s="1" customFormat="1">
       <c r="A12" s="1" t="s">
         <v>143</v>
       </c>
@@ -4058,37 +4149,40 @@
         <v>60</v>
       </c>
       <c r="K12" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="S12" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="T12" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="AB12" s="1" t="s">
+      <c r="AC12" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AC12" s="1" t="s">
+      <c r="AD12" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AD12" s="1" t="s">
+      <c r="AE12" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AE12" s="1" t="s">
+      <c r="AF12" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AF12" s="1" t="s">
+      <c r="AG12" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="13" spans="1:73" s="5" customFormat="1">
+    <row r="13" spans="1:74" s="5" customFormat="1">
       <c r="A13" s="5" t="s">
         <v>143</v>
       </c>
@@ -4116,59 +4210,62 @@
       <c r="J13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="M13" s="5">
+      <c r="N13" s="5">
         <v>-999</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="P13" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="Q13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="S13" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="T13" s="5" t="s">
+      <c r="U13" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="U13" s="5" t="s">
+      <c r="V13" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="V13" s="5" t="s">
+      <c r="W13" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="W13" s="5" t="s">
+      <c r="X13" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="Y13" s="5" t="s">
+      <c r="Z13" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="Z13" s="5" t="s">
+      <c r="AA13" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AA13" s="5" t="s">
+      <c r="AB13" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="AB13" s="5" t="s">
+      <c r="AC13" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AC13" s="5" t="s">
+      <c r="AD13" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AD13" s="5" t="s">
+      <c r="AE13" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="AE13" s="5" t="s">
+      <c r="AF13" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="AF13" s="5" t="s">
+      <c r="AG13" s="5" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:73" s="1" customFormat="1">
+    <row r="14" spans="1:74" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
         <v>143</v>
       </c>
@@ -4197,118 +4294,121 @@
         <v>69</v>
       </c>
       <c r="K14" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <v>-999</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="U14" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="V14" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="W14" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="X14" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="Y14" s="1" t="s">
+      <c r="Z14" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="Z14" s="1" t="s">
+      <c r="AA14" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AA14" s="1" t="s">
+      <c r="AB14" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AB14" s="1" t="s">
+      <c r="AC14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AC14" s="1" t="s">
+      <c r="AD14" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AD14" s="1" t="s">
+      <c r="AE14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AJ14" s="1" t="s">
+      <c r="AK14" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="AK14" s="1" t="s">
+      <c r="AL14" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AL14" s="1" t="s">
+      <c r="AM14" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="AO14" s="1" t="s">
+      <c r="AP14" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="AU14" s="1" t="s">
+      <c r="AV14" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="AW14" s="1" t="s">
+      <c r="AX14" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="AY14" s="1" t="s">
+      <c r="AZ14" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="AZ14" s="1" t="s">
+      <c r="BA14" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="BA14" s="1" t="s">
+      <c r="BB14" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="BB14" s="1" t="s">
+      <c r="BC14" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="BC14" s="1" t="s">
+      <c r="BD14" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="BD14" s="1" t="s">
+      <c r="BE14" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="BE14" s="1" t="s">
+      <c r="BF14" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="BF14" s="1" t="s">
+      <c r="BG14" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="BH14" s="1" t="s">
+      <c r="BI14" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="BI14" s="1" t="s">
+      <c r="BJ14" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="BJ14" s="1" t="s">
+      <c r="BK14" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="BN14" s="1" t="s">
+      <c r="BO14" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="BO14" s="1" t="s">
+      <c r="BP14" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="BP14" s="1" t="s">
+      <c r="BQ14" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="BS14" s="1" t="s">
+      <c r="BT14" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="BT14" s="1" t="s">
+      <c r="BU14" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="15" spans="1:73" s="1" customFormat="1">
+    <row r="15" spans="1:74" s="1" customFormat="1">
       <c r="A15" s="1" t="s">
         <v>143</v>
       </c>
@@ -4337,58 +4437,61 @@
         <v>72</v>
       </c>
       <c r="K15" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="1">
         <v>-999</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="S15" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="U15" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="V15" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="W15" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="X15" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="Y15" s="1" t="s">
+      <c r="Z15" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="AA15" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AA15" s="1" t="s">
+      <c r="AB15" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AB15" s="1" t="s">
+      <c r="AC15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AC15" s="1" t="s">
+      <c r="AD15" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AD15" s="1" t="s">
+      <c r="AE15" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AE15" s="1" t="s">
+      <c r="AF15" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AF15" s="1" t="s">
+      <c r="AG15" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:73" s="1" customFormat="1">
+    <row r="16" spans="1:74" s="1" customFormat="1">
       <c r="A16" s="1" t="s">
         <v>143</v>
       </c>
@@ -4420,118 +4523,121 @@
         <v>79</v>
       </c>
       <c r="K16" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="1">
         <v>-9999</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>-8888</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="S16" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="U16" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="W16" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="X16" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="Y16" s="1" t="s">
+      <c r="Z16" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="Z16" s="1" t="s">
+      <c r="AA16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AA16" s="1" t="s">
+      <c r="AB16" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AB16" s="1" t="s">
+      <c r="AC16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AC16" s="1" t="s">
+      <c r="AD16" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AD16" s="1" t="s">
+      <c r="AE16" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AH16" s="1" t="s">
+      <c r="AI16" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AK16" s="1" t="s">
+      <c r="AL16" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AL16" s="1" t="s">
+      <c r="AM16" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AO16" s="1" t="s">
+      <c r="AP16" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="AR16" s="1" t="s">
+      <c r="AS16" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="AW16" s="1" t="s">
+      <c r="AX16" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="AY16" s="1" t="s">
+      <c r="AZ16" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AZ16" s="1" t="s">
+      <c r="BA16" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="BA16" s="1" t="s">
+      <c r="BB16" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="BB16" s="1" t="s">
+      <c r="BC16" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="BC16" s="1" t="s">
+      <c r="BD16" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="BD16" s="1" t="s">
+      <c r="BE16" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BE16" s="1" t="s">
+      <c r="BF16" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BF16" s="7" t="s">
+      <c r="BG16" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="BH16" s="1" t="s">
+      <c r="BI16" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="BM16" s="1" t="s">
+      <c r="BN16" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="BN16" s="1" t="s">
+      <c r="BO16" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BO16" s="1" t="s">
+      <c r="BP16" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BP16" s="1" t="s">
+      <c r="BQ16" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BS16" s="1" t="s">
+      <c r="BT16" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="BT16" s="1" t="s">
+      <c r="BU16" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="BU16" s="1" t="s">
+      <c r="BV16" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:73" s="5" customFormat="1">
+    <row r="17" spans="1:74" s="5" customFormat="1">
       <c r="A17" s="5" t="s">
         <v>143</v>
       </c>
@@ -4563,121 +4669,124 @@
         <v>80</v>
       </c>
       <c r="K17" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="L17" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="M17" s="5">
+      <c r="N17" s="5">
         <v>-9999</v>
       </c>
-      <c r="N17" s="5">
+      <c r="O17" s="5">
         <v>-8888</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="Q17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="R17" s="5" t="s">
+      <c r="S17" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="T17" s="5" t="s">
+      <c r="U17" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="U17" s="5" t="s">
+      <c r="V17" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="V17" s="5" t="s">
+      <c r="W17" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="W17" s="5" t="s">
+      <c r="X17" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="Y17" s="5" t="s">
+      <c r="Z17" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="Z17" s="5" t="s">
+      <c r="AA17" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="AA17" s="5" t="s">
+      <c r="AB17" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="AC17" s="5" t="s">
+      <c r="AD17" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AD17" s="5" t="s">
+      <c r="AE17" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="AH17" s="5" t="s">
+      <c r="AI17" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="AJ17" s="5" t="s">
+      <c r="AK17" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="AK17" s="5" t="s">
+      <c r="AL17" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="AL17" s="5" t="s">
+      <c r="AM17" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="AO17" s="5" t="s">
+      <c r="AP17" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="AP17" s="5" t="s">
+      <c r="AQ17" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="AR17" s="5" t="s">
+      <c r="AS17" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="AW17" s="5" t="s">
+      <c r="AX17" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="AY17" s="5" t="s">
+      <c r="AZ17" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="AZ17" s="5" t="s">
+      <c r="BA17" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="BA17" s="5" t="s">
+      <c r="BB17" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="BB17" s="5" t="s">
+      <c r="BC17" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="BC17" s="5" t="s">
+      <c r="BD17" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="BD17" s="5" t="s">
+      <c r="BE17" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="BE17" s="5" t="s">
+      <c r="BF17" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="BF17" s="5" t="s">
+      <c r="BG17" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="BH17" s="5" t="s">
+      <c r="BI17" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="BM17" s="5" t="s">
+      <c r="BN17" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="BN17" s="5" t="s">
+      <c r="BO17" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="BO17" s="5" t="s">
+      <c r="BP17" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="BP17" s="5" t="s">
+      <c r="BQ17" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="BS17" s="5" t="s">
+      <c r="BT17" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="BT17" s="5" t="s">
+      <c r="BU17" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="BU17" s="5" t="s">
+      <c r="BV17" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:73" s="1" customFormat="1">
+    <row r="18" spans="1:74" s="1" customFormat="1">
       <c r="A18" s="1" t="s">
         <v>143</v>
       </c>
@@ -4708,56 +4817,59 @@
       <c r="J18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="1">
         <v>-999</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>155</v>
       </c>
       <c r="T18" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="U18" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="V18" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="W18" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="X18" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Y18" s="1" t="s">
+      <c r="Z18" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="Z18" s="1" t="s">
+      <c r="AA18" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AA18" s="1" t="s">
+      <c r="AB18" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="AC18" s="1" t="s">
+      <c r="AD18" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AE18" s="1" t="s">
+      <c r="AF18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AF18" s="1" t="s">
+      <c r="AG18" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="19" spans="1:73" s="5" customFormat="1">
+    <row r="19" spans="1:74" s="5" customFormat="1">
       <c r="A19" s="5" t="s">
         <v>143</v>
       </c>
@@ -4789,121 +4901,124 @@
         <v>80</v>
       </c>
       <c r="K19" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="L19" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="M19" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="M19" s="5">
+      <c r="N19" s="5">
         <v>-9999</v>
       </c>
-      <c r="N19" s="5">
+      <c r="O19" s="5">
         <v>1E-4</v>
       </c>
-      <c r="O19" s="5" t="s">
+      <c r="P19" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="P19" s="5" t="s">
+      <c r="Q19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="T19" s="5" t="s">
+      <c r="U19" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="U19" s="5" t="s">
+      <c r="V19" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="V19" s="5" t="s">
+      <c r="W19" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="W19" s="5" t="s">
+      <c r="X19" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="Y19" s="5" t="s">
+      <c r="Z19" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="Z19" s="5" t="s">
+      <c r="AA19" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="AA19" s="5" t="s">
+      <c r="AB19" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="AD19" s="5" t="s">
+      <c r="AE19" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="AH19" s="5" t="s">
+      <c r="AI19" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="AJ19" s="5" t="s">
+      <c r="AK19" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="AK19" s="5" t="s">
+      <c r="AL19" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="AL19" s="5" t="s">
+      <c r="AM19" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="AO19" s="5" t="s">
+      <c r="AP19" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="AP19" s="5" t="s">
+      <c r="AQ19" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="AR19" s="5" t="s">
+      <c r="AS19" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="AW19" s="5" t="s">
+      <c r="AX19" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="AY19" s="5" t="s">
+      <c r="AZ19" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="AZ19" s="5" t="s">
+      <c r="BA19" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="BA19" s="5" t="s">
+      <c r="BB19" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="BB19" s="5" t="s">
+      <c r="BC19" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="BC19" s="5" t="s">
+      <c r="BD19" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="BD19" s="5" t="s">
+      <c r="BE19" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="BE19" s="5" t="s">
+      <c r="BF19" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="BF19" s="5" t="s">
+      <c r="BG19" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="BH19" s="5" t="s">
+      <c r="BI19" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="BM19" s="5" t="s">
+      <c r="BN19" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="BN19" s="5" t="s">
+      <c r="BO19" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="BO19" s="5" t="s">
+      <c r="BP19" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="BP19" s="5" t="s">
+      <c r="BQ19" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="BS19" s="5" t="s">
+      <c r="BT19" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="BT19" s="5" t="s">
+      <c r="BU19" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="BU19" s="5" t="s">
+      <c r="BV19" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:73" s="1" customFormat="1">
+    <row r="20" spans="1:74" s="1" customFormat="1">
       <c r="A20" s="1" t="s">
         <v>143</v>
       </c>
@@ -4935,121 +5050,124 @@
         <v>80</v>
       </c>
       <c r="K20" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <v>-9999</v>
       </c>
-      <c r="N20" s="1">
+      <c r="O20" s="1">
         <v>-8888</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="S20" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="U20" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="V20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="W20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="X20" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="Y20" s="1" t="s">
+      <c r="Z20" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="Z20" s="1" t="s">
+      <c r="AA20" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AA20" s="1" t="s">
+      <c r="AB20" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AC20" s="1" t="s">
+      <c r="AD20" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AD20" s="1" t="s">
+      <c r="AE20" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AH20" s="1" t="s">
+      <c r="AI20" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AJ20" s="1" t="s">
+      <c r="AK20" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="AK20" s="1" t="s">
+      <c r="AL20" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AL20" s="1" t="s">
+      <c r="AM20" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AO20" s="1" t="s">
+      <c r="AP20" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AP20" s="1" t="s">
+      <c r="AQ20" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="AR20" s="1" t="s">
+      <c r="AS20" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="AW20" s="1" t="s">
+      <c r="AX20" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="AY20" s="1" t="s">
+      <c r="AZ20" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AZ20" s="1" t="s">
+      <c r="BA20" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="BA20" s="1" t="s">
+      <c r="BB20" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="BB20" s="1" t="s">
+      <c r="BC20" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="BC20" s="1" t="s">
+      <c r="BD20" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="BD20" s="1" t="s">
+      <c r="BE20" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BE20" s="1" t="s">
+      <c r="BF20" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BF20" s="1" t="s">
+      <c r="BG20" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BH20" s="1" t="s">
+      <c r="BI20" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="BM20" s="1" t="s">
+      <c r="BN20" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="BN20" s="1" t="s">
+      <c r="BO20" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BO20" s="1" t="s">
+      <c r="BP20" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BP20" s="1" t="s">
+      <c r="BQ20" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BS20" s="1" t="s">
+      <c r="BT20" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="BT20" s="1" t="s">
+      <c r="BU20" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="BU20" s="1" t="s">
+      <c r="BV20" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:73" s="1" customFormat="1">
+    <row r="21" spans="1:74" s="1" customFormat="1">
       <c r="A21" s="1" t="s">
         <v>143</v>
       </c>
@@ -5078,85 +5196,88 @@
         <v>355</v>
       </c>
       <c r="K21" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="S21" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="U21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="V21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="W21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="X21" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="Y21" s="1" t="s">
+      <c r="Z21" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="Z21" s="1" t="s">
+      <c r="AA21" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AA21" s="1" t="s">
+      <c r="AB21" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AB21" s="1" t="s">
+      <c r="AC21" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AC21" s="1" t="s">
+      <c r="AD21" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AD21" s="1" t="s">
+      <c r="AE21" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="AH21" s="1" t="s">
+      <c r="AI21" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="AK21" s="1" t="s">
+      <c r="AL21" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AL21" s="1" t="s">
+      <c r="AM21" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AO21" s="1" t="s">
+      <c r="AP21" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="AQ21" s="1" t="s">
+      <c r="AR21" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="AY21" s="1" t="s">
+      <c r="AZ21" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AZ21" s="1" t="s">
+      <c r="BA21" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="BA21" s="1" t="s">
+      <c r="BB21" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="BB21" s="1" t="s">
+      <c r="BC21" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="BD21" s="1" t="s">
+      <c r="BE21" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="BJ21" s="1" t="s">
+      <c r="BK21" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="BO21" s="1" t="s">
+      <c r="BP21" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="BP21" s="1" t="s">
+      <c r="BQ21" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:73" s="1" customFormat="1">
+    <row r="22" spans="1:74" s="1" customFormat="1">
       <c r="A22" s="1" t="s">
         <v>143</v>
       </c>
@@ -5185,40 +5306,43 @@
         <v>355</v>
       </c>
       <c r="K22" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="S22" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="Y22" s="1" t="s">
+      <c r="Z22" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="Z22" s="1" t="s">
+      <c r="AA22" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AA22" s="1" t="s">
+      <c r="AB22" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AB22" s="1" t="s">
+      <c r="AC22" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="AC22" s="1" t="s">
+      <c r="AD22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AD22" s="1" t="s">
+      <c r="AE22" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AE22" s="1" t="s">
+      <c r="AF22" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="AF22" s="1" t="s">
+      <c r="AG22" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="23" spans="1:73" s="1" customFormat="1">
+    <row r="23" spans="1:74" s="1" customFormat="1">
       <c r="A23" s="1" t="s">
         <v>143</v>
       </c>
@@ -5250,121 +5374,124 @@
         <v>350</v>
       </c>
       <c r="K23" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="M23" s="1">
+      <c r="N23" s="1">
         <v>-999</v>
       </c>
-      <c r="N23" s="1">
+      <c r="O23" s="1">
         <v>1E-4</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="Q23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="S23" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="U23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="U23" s="1" t="s">
+      <c r="V23" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="W23" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="X23" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="Y23" s="1" t="s">
+      <c r="Z23" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="Z23" s="1" t="s">
+      <c r="AA23" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AA23" s="1" t="s">
+      <c r="AB23" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AC23" s="1" t="s">
+      <c r="AD23" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AD23" s="1" t="s">
+      <c r="AE23" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AH23" s="1" t="s">
+      <c r="AI23" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AJ23" s="1" t="s">
+      <c r="AK23" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="AK23" s="1" t="s">
+      <c r="AL23" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AL23" s="1" t="s">
+      <c r="AM23" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AO23" s="1" t="s">
+      <c r="AP23" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="AP23" s="1" t="s">
+      <c r="AQ23" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="AS23" s="1" t="s">
+      <c r="AT23" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="AU23" s="1" t="s">
+      <c r="AV23" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="AW23" s="1" t="s">
+      <c r="AX23" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="AY23" s="1" t="s">
+      <c r="AZ23" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AZ23" s="1" t="s">
+      <c r="BA23" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="BA23" s="1" t="s">
+      <c r="BB23" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="BB23" s="1" t="s">
+      <c r="BC23" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="BC23" s="1" t="s">
+      <c r="BD23" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="BD23" s="1" t="s">
+      <c r="BE23" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BE23" s="1" t="s">
+      <c r="BF23" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BF23" s="1" t="s">
+      <c r="BG23" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BH23" s="1" t="s">
+      <c r="BI23" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="BN23" s="1" t="s">
+      <c r="BO23" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BO23" s="1" t="s">
+      <c r="BP23" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BP23" s="1" t="s">
+      <c r="BQ23" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BS23" s="1" t="s">
+      <c r="BT23" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="BT23" s="1" t="s">
+      <c r="BU23" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="1:73">
+    <row r="24" spans="1:74">
       <c r="A24" s="1" t="s">
         <v>143</v>
       </c>
@@ -5390,76 +5517,79 @@
         <v>77</v>
       </c>
       <c r="K24" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="M24" s="1">
+      <c r="N24" s="1">
         <v>-999</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>1E-4</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="Q24" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>381</v>
       </c>
-      <c r="T24" s="1" t="s">
+      <c r="U24" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="U24" s="1" t="s">
+      <c r="V24" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="W24" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="X24" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="Y24" s="1" t="s">
+      <c r="Z24" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="Z24" s="1" t="s">
+      <c r="AA24" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="AA24" s="1" t="s">
+      <c r="AB24" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AB24" s="1" t="s">
+      <c r="AC24" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="AC24" s="1" t="s">
+      <c r="AD24" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="AD24" s="1" t="s">
+      <c r="AE24" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="25" spans="1:73">
+    <row r="25" spans="1:74">
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:73">
+    <row r="26" spans="1:74">
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:73">
+    <row r="27" spans="1:74">
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:73">
+    <row r="28" spans="1:74">
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:73">
+    <row r="29" spans="1:74">
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:73">
+    <row r="30" spans="1:74">
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:73">
+    <row r="31" spans="1:74">
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:73">
+    <row r="32" spans="1:74">
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="5:5">
@@ -5820,6 +5950,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F628FA597F3714429FB28B155BE7FB40" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="072d965ee4144b7352b1b9fa85ddc208">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e20472b3-c705-44f8-bba6-767e7adb5a1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4055c15dc2c3ab7669828420f152f0b" ns3:_="">
     <xsd:import namespace="e20472b3-c705-44f8-bba6-767e7adb5a1e"/>
@@ -5997,15 +6136,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F36667E2-7954-4E16-8F9D-F27CDF186C37}">
   <ds:schemaRefs>
@@ -6023,6 +6153,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5515A6BA-2F84-4DE9-99CA-C1D09E83DEB0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8EE8325-82A5-417F-8B27-94942DC034B5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6038,12 +6176,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5515A6BA-2F84-4DE9-99CA-C1D09E83DEB0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/product_data/processing_metadata/regression_test/PIG_meta_RT.xlsx
+++ b/product_data/processing_metadata/regression_test/PIG_meta_RT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/regression_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{1FB7BE7C-0CE7-49FD-AA4B-7CF1A48BED56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{442DD13A-8CB4-46BA-9EE7-E59FDB0D8498}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{1FB7BE7C-0CE7-49FD-AA4B-7CF1A48BED56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F27DD736-49D9-4857-9309-A31FF9092511}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2930" yWindow="1390" windowWidth="12800" windowHeight="6800" activeTab="1" xr2:uid="{182192A8-E941-4269-BE15-A6758393A1A1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{182192A8-E941-4269-BE15-A6758393A1A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="425">
   <si>
     <t>EXPOCODE</t>
   </si>
@@ -183,9 +183,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>JGOFS</t>
   </si>
   <si>
     <t>AADC</t>
@@ -1098,9 +1095,6 @@
     <t>.tsv</t>
   </si>
   <si>
-    <t>SOFeX</t>
-  </si>
-  <si>
     <t>Kenneth Johnson</t>
   </si>
   <si>
@@ -1137,9 +1131,6 @@
     <t>chlide_chl_a</t>
   </si>
   <si>
-    <t>NODC</t>
-  </si>
-  <si>
     <t>Holm_Hansen_1978</t>
   </si>
   <si>
@@ -1173,9 +1164,6 @@
     <t>NASA</t>
   </si>
   <si>
-    <t>HPLC</t>
-  </si>
-  <si>
     <t>JGOFS_1994</t>
   </si>
   <si>
@@ -1318,6 +1306,12 @@
   </si>
   <si>
     <t>PAL-LTER_pig_hplc</t>
+  </si>
+  <si>
+    <t>BCO-DMO</t>
+  </si>
+  <si>
+    <t>Unknown_HPLC</t>
   </si>
 </sst>
 </file>
@@ -2516,8 +2510,8 @@
   <dimension ref="A1:BV93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L18" sqref="D18:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2531,13 +2525,13 @@
   <sheetData>
     <row r="1" spans="1:74">
       <c r="A1" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>28</v>
@@ -2561,19 +2555,19 @@
         <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>33</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>38</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>37</v>
@@ -2582,13 +2576,13 @@
         <v>36</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>45</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>41</v>
@@ -2612,7 +2606,7 @@
         <v>44</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AC1" s="5" t="s">
         <v>46</v>
@@ -2621,133 +2615,133 @@
         <v>47</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF1" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG1" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AP1" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="AH1" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="AP1" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AY1" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BA1" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BB1" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BE1" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BF1" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BG1" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BH1" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BI1" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BK1" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BL1" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BM1" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="BM1" s="5" t="s">
+      <c r="BN1" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="BN1" s="5" t="s">
+      <c r="BO1" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="BO1" s="5" t="s">
+      <c r="BP1" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="BP1" s="5" t="s">
+      <c r="BQ1" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="BQ1" s="5" t="s">
+      <c r="BR1" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="BR1" s="5" t="s">
+      <c r="BS1" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="BS1" s="5" t="s">
+      <c r="BT1" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="BT1" s="5" t="s">
+      <c r="BU1" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="BU1" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="BV1" s="5" t="s">
         <v>48</v>
@@ -2755,186 +2749,186 @@
     </row>
     <row r="2" spans="1:74" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="O2" s="1">
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="AB2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AK2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="BT2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AL2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="BT2" s="1" t="s">
+      <c r="BU2" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="BU2" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:74" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N3" s="1">
         <v>-9999</v>
@@ -2943,415 +2937,415 @@
         <v>-8888</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="Z3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AA3" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="AB3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AL3" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AM3" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AM3" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="AS3" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AZ3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BA3" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BC3" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="BD3" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="BC3" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BE3" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BF3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP3" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BF3" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="BQ3" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:74" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Z4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AA4" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="AB4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AP4" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="BD4" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="AT4" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AX4" s="1" t="s">
+      <c r="BE4" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="BP4" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="AY4" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="BE4" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="BF4" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="BI4" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="BO4" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="BP4" s="1" t="s">
+      <c r="BQ4" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="BQ4" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:74" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Z5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AA5" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="AB5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AC5" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT5" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="AD5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM5" s="1" t="s">
+      <c r="AV5" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="BK5" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="BL5" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="BO5" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="BP5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BQ5" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AO5" s="1" t="s">
+      <c r="BU5" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="BD5" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="BE5" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="BF5" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BI5" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="BJ5" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="BK5" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="BL5" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="BO5" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="BP5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="BQ5" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="BU5" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:74" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N6" s="1">
         <v>-999</v>
@@ -3360,156 +3354,156 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="W6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="AK6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AL6" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="AL6" s="1" t="s">
+      <c r="AM6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BI6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="AM6" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AV6" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="AW6" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BE6" s="1" t="s">
+      <c r="BK6" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="BN6" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="BO6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP6" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BF6" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BG6" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BI6" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BJ6" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="BK6" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="BN6" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="BO6" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BP6" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="BQ6" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BT6" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BU6" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="BU6" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:74" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N7" s="1">
         <v>-999</v>
@@ -3518,156 +3512,156 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI7" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="W7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="AK7" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AL7" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="AL7" s="1" t="s">
+      <c r="AM7" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BF7" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BG7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BI7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="AM7" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AV7" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="AW7" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AX7" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="BB7" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BC7" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="BD7" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BE7" s="1" t="s">
+      <c r="BK7" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="BN7" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="BO7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP7" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BF7" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BG7" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BI7" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BJ7" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="BK7" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="BN7" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="BO7" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BP7" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="BQ7" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BT7" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BU7" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="BU7" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:74" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N8" s="1">
         <v>-999</v>
@@ -3676,159 +3670,159 @@
         <v>0</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI8" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Z8" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="AK8" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AL8" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="AL8" s="1" t="s">
+      <c r="AM8" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AW8" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ8" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BC8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="BD8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BE8" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BF8" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BG8" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BI8" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BJ8" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="AM8" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="AP8" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="AQ8" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="AT8" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AV8" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="AW8" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AX8" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AZ8" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="BA8" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="BB8" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BC8" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="BD8" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BE8" s="1" t="s">
+      <c r="BK8" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="BN8" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="BO8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP8" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BF8" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BG8" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BI8" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BJ8" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="BK8" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="BN8" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="BO8" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BP8" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="BQ8" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BT8" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BU8" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="BU8" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:74" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="K9" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N9" s="1">
         <v>-999</v>
@@ -3837,696 +3831,696 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI9" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Z9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI9" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="AK9" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AL9" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="AL9" s="1" t="s">
+      <c r="AM9" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AW9" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ9" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="BA9" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BB9" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BC9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="BD9" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BE9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BF9" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BG9" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BI9" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BJ9" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="AM9" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="AP9" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="AQ9" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="AT9" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AV9" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="AW9" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AX9" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AY9" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AZ9" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="BA9" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="BB9" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BC9" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="BD9" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BE9" s="1" t="s">
+      <c r="BK9" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="BN9" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="BO9" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP9" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BF9" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BG9" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BI9" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BJ9" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="BK9" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="BN9" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="BO9" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BP9" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="BQ9" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BT9" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BU9" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="BU9" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:74" s="5" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>49</v>
+        <v>423</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AC10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD10" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AD10" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="AE10" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF10" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:74" s="1" customFormat="1">
       <c r="A11" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>121</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>423</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="K11" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AC11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD11" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD11" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="AE11" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AL11" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AO11" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="AM11" s="1" t="s">
+      <c r="AP11" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AW11" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AX11" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AZ11" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="BA11" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="BB11" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="BC11" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="BE11" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="BF11" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="BG11" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BI11" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BJ11" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="BK11" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="BL11" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="BP11" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AO11" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AP11" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AW11" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="AX11" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="AZ11" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="BA11" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="BB11" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="BC11" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="BE11" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="BF11" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="BG11" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BI11" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="BJ11" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="BK11" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="BL11" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="BP11" s="1" t="s">
+      <c r="BQ11" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="BQ11" s="1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:74" s="1" customFormat="1">
       <c r="A12" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>121</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>423</v>
       </c>
       <c r="E12" s="6">
         <v>320619980225</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AC12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD12" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD12" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="AE12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:74" s="5" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="K13" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N13" s="5">
         <v>-999</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA13" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB13" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="V13" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="W13" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="X13" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z13" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA13" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB13" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="AC13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD13" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AD13" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="AE13" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF13" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AG13" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:74" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N14" s="1">
         <v>-999</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB14" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="AC14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AD14" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="AE14" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AK14" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AL14" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="AL14" s="1" t="s">
+      <c r="AM14" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AP14" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AM14" s="1" t="s">
+      <c r="AV14" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AX14" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AZ14" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="BA14" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="BB14" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="BC14" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="BD14" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="BE14" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BF14" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="BG14" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="BI14" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="BJ14" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="BK14" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="BO14" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="BP14" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BQ14" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BT14" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="AP14" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="AV14" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="AX14" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="AZ14" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="BA14" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="BB14" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="BC14" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="BD14" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="BE14" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="BF14" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="BG14" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="BI14" s="1" t="s">
+      <c r="BU14" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="BJ14" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="BK14" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="BO14" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="BP14" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="BQ14" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="BT14" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="BU14" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:74" s="1" customFormat="1">
       <c r="A15" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="K15" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N15" s="1">
         <v>-999</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB15" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="AC15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AD15" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="AE15" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:74" s="1" customFormat="1">
       <c r="A16" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="K16" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N16" s="1">
         <v>-9999</v>
@@ -4535,144 +4529,144 @@
         <v>-8888</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA16" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AA16" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="AB16" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AI16" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL16" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AM16" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AM16" s="1" t="s">
+      <c r="AP16" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AP16" s="1" t="s">
+      <c r="AS16" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="AS16" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="AX16" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AZ16" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BA16" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="BA16" s="1" t="s">
+      <c r="BB16" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="BB16" s="1" t="s">
+      <c r="BC16" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="BD16" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="BC16" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="BD16" s="1" t="s">
+      <c r="BE16" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="BE16" s="1" t="s">
+      <c r="BF16" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BG16" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="BI16" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BN16" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="BO16" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP16" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BF16" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BG16" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="BI16" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BN16" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="BO16" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BP16" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="BQ16" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BT16" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BU16" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="BU16" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="BV16" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:74" s="5" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="G17" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="I17" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="10" t="s">
-        <v>83</v>
-      </c>
       <c r="J17" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N17" s="5">
         <v>-9999</v>
@@ -4681,233 +4675,233 @@
         <v>-8888</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA17" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AA17" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="AB17" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AD17" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AE17" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AI17" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AK17" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="AL17" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="AM17" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="AP17" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="AQ17" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="AL17" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="AM17" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="AP17" s="5" t="s">
+      <c r="AS17" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="AQ17" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="AS17" s="5" t="s">
-        <v>318</v>
-      </c>
       <c r="AX17" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AZ17" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="BA17" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="BA17" s="5" t="s">
+      <c r="BB17" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="BB17" s="5" t="s">
+      <c r="BC17" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="BD17" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="BC17" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BD17" s="5" t="s">
+      <c r="BE17" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="BE17" s="5" t="s">
+      <c r="BF17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="BG17" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="BI17" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="BN17" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="BO17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP17" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="BF17" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="BG17" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="BI17" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="BN17" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="BO17" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="BP17" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="BQ17" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BT17" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="BU17" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="BU17" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="BV17" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:74" s="1" customFormat="1">
       <c r="A18" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N18" s="1">
         <v>-999</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="W18" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="X18" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB18" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Z18" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA18" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="AD18" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:74" s="5" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="J19" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N19" s="5">
         <v>-9999</v>
@@ -4916,144 +4910,144 @@
         <v>1E-4</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U19" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="W19" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="V19" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="W19" s="5" t="s">
-        <v>149</v>
-      </c>
       <c r="X19" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z19" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA19" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB19" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="Z19" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA19" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB19" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="AE19" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AI19" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AK19" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="AL19" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="AM19" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="AP19" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="AQ19" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="AL19" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="AM19" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="AP19" s="5" t="s">
+      <c r="AS19" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="AQ19" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="AS19" s="5" t="s">
-        <v>318</v>
-      </c>
       <c r="AX19" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AZ19" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="BA19" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="BA19" s="5" t="s">
+      <c r="BB19" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="BB19" s="5" t="s">
+      <c r="BC19" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="BD19" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="BC19" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BD19" s="5" t="s">
+      <c r="BE19" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="BE19" s="5" t="s">
+      <c r="BF19" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="BG19" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="BI19" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="BN19" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="BO19" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP19" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="BF19" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="BG19" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="BI19" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="BN19" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="BO19" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="BP19" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="BQ19" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BT19" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="BU19" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="BU19" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="BV19" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:74" s="1" customFormat="1">
       <c r="A20" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="N20" s="1">
         <v>-9999</v>
@@ -5062,325 +5056,325 @@
         <v>-8888</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA20" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AA20" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="AB20" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AI20" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AK20" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM20" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="AL20" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AM20" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="AP20" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="AQ20" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="AS20" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AX20" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AZ20" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BA20" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="BA20" s="1" t="s">
+      <c r="BB20" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="BB20" s="1" t="s">
+      <c r="BC20" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="BD20" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="BC20" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="BD20" s="1" t="s">
+      <c r="BE20" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="BE20" s="1" t="s">
+      <c r="BF20" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BG20" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BI20" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BN20" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="BO20" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP20" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BF20" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BG20" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BI20" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BN20" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="BO20" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BP20" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="BQ20" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BT20" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BU20" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="BU20" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="BV20" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:74" s="1" customFormat="1">
       <c r="A21" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="H21" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="I21" s="8" t="s">
+      <c r="K21" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="Q21" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="AD21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AI21" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="Z21" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA21" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE21" s="1" t="s">
+      <c r="AL21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM21" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AP21" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AR21" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="AI21" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="AL21" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AM21" s="1" t="s">
+      <c r="AZ21" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="BA21" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="BB21" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="BC21" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="BE21" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="BK21" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="BP21" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AP21" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AR21" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="AZ21" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="BA21" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="BB21" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="BC21" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="BE21" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="BK21" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="BP21" s="1" t="s">
+      <c r="BQ21" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="BQ21" s="1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:74" s="1" customFormat="1">
       <c r="A22" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="H22" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="K22" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="I22" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="L22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC22" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="Q22" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="S22" s="1" t="s">
+      <c r="AD22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF22" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="Z22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC22" s="1" t="s">
+      <c r="AG22" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="AD22" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE22" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF22" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="AG22" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:74" s="1" customFormat="1">
       <c r="A23" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I23" s="8" t="s">
+      <c r="J23" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="K23" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N23" s="1">
         <v>-999</v>
@@ -5389,138 +5383,138 @@
         <v>1E-4</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA23" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AA23" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="AB23" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AI23" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AK23" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AL23" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AM23" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AP23" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AQ23" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="AL23" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="AM23" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="AP23" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="AQ23" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="AT23" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AV23" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AX23" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AZ23" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BA23" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="BA23" s="1" t="s">
+      <c r="BB23" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="BB23" s="1" t="s">
+      <c r="BC23" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="BD23" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="BC23" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="BD23" s="1" t="s">
+      <c r="BE23" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="BE23" s="1" t="s">
+      <c r="BF23" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BG23" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BI23" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BO23" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP23" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BF23" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BG23" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BI23" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BO23" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BP23" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="BQ23" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BT23" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BU23" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="BU23" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:74">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>366</v>
+        <v>121</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>423</v>
       </c>
       <c r="E24" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="N24" s="1">
         <v>-999</v>
@@ -5529,43 +5523,43 @@
         <v>1E-4</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S24" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="U24" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA24" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="AB24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC24" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="W24" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="Z24" s="1" t="s">
+      <c r="AD24" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="AA24" s="1" t="s">
+      <c r="AE24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF24" t="s">
         <v>371</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="AD24" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="AE24" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:74">
@@ -5803,10 +5797,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5881,7 +5875,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:1">

--- a/product_data/processing_metadata/regression_test/PIG_meta_RT.xlsx
+++ b/product_data/processing_metadata/regression_test/PIG_meta_RT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/regression_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{1FB7BE7C-0CE7-49FD-AA4B-7CF1A48BED56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F27DD736-49D9-4857-9309-A31FF9092511}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{1FB7BE7C-0CE7-49FD-AA4B-7CF1A48BED56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12740EC0-95BD-4129-ADE7-3A3D289E2893}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{182192A8-E941-4269-BE15-A6758393A1A1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{182192A8-E941-4269-BE15-A6758393A1A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="427">
   <si>
     <t>EXPOCODE</t>
   </si>
@@ -1071,9 +1071,6 @@
     <t>VanHeukelem_Thomas_2001</t>
   </si>
   <si>
-    <t>JGOFS_HPLC_1994</t>
-  </si>
-  <si>
     <t>33RR20020105</t>
   </si>
   <si>
@@ -1164,9 +1161,6 @@
     <t>NASA</t>
   </si>
   <si>
-    <t>JGOFS_1994</t>
-  </si>
-  <si>
     <t>%Y %m %d</t>
   </si>
   <si>
@@ -1312,6 +1306,18 @@
   </si>
   <si>
     <t>Unknown_HPLC</t>
+  </si>
+  <si>
+    <t>analysis_type</t>
+  </si>
+  <si>
+    <t>HPLC</t>
+  </si>
+  <si>
+    <t>JGOFS</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -2507,23 +2513,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4672EF9E-F94B-4EA2-AAA3-F328B5444130}">
-  <dimension ref="A1:BV93"/>
+  <dimension ref="A1:BW93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L18" sqref="D18:L18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="3" max="3" width="13.90625" customWidth="1"/>
     <col min="5" max="5" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7265625" style="5"/>
-    <col min="31" max="31" width="8.7265625" style="5"/>
-    <col min="34" max="34" width="8.7265625" style="5"/>
+    <col min="11" max="12" width="8.7265625" style="5"/>
+    <col min="32" max="32" width="8.7265625" style="5"/>
+    <col min="35" max="35" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74">
+    <row r="1" spans="1:75">
       <c r="A1" s="5" t="s">
         <v>141</v>
       </c>
@@ -2555,204 +2561,207 @@
         <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="L1" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AY1" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BA1" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BB1" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BE1" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BF1" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BG1" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BH1" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BI1" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BK1" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BL1" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BM1" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="BM1" s="5" t="s">
+      <c r="BN1" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="BN1" s="5" t="s">
+      <c r="BO1" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="BO1" s="5" t="s">
+      <c r="BP1" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="BP1" s="5" t="s">
+      <c r="BQ1" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="BQ1" s="5" t="s">
+      <c r="BR1" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="BR1" s="5" t="s">
+      <c r="BS1" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="BS1" s="5" t="s">
+      <c r="BT1" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="BT1" s="5" t="s">
+      <c r="BU1" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="BU1" s="5" t="s">
+      <c r="BV1" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="BV1" s="5" t="s">
+      <c r="BW1" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:74" s="1" customFormat="1">
+    <row r="2" spans="1:75" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>131</v>
@@ -2779,126 +2788,129 @@
         <v>176</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>0</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="BO2" s="1" t="s">
+      <c r="BP2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BQ2" s="1" t="s">
+      <c r="BR2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BT2" s="1" t="s">
+      <c r="BU2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="BU2" s="1" t="s">
+      <c r="BV2" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:74" s="1" customFormat="1">
+    <row r="3" spans="1:75" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>121</v>
@@ -2925,114 +2937,117 @@
         <v>78</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>-9999</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>-8888</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BA3" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BC3" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BD3" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BE3" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BF3" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BG3" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BI3" s="1" t="s">
+      <c r="BJ3" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BO3" s="1" t="s">
+      <c r="BP3" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BP3" s="1" t="s">
+      <c r="BQ3" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BQ3" s="1" t="s">
+      <c r="BR3" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BV3" s="1" t="s">
+      <c r="BW3" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:74" s="1" customFormat="1">
+    <row r="4" spans="1:75" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>121</v>
@@ -3059,111 +3074,114 @@
         <v>63</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AF4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AI4" s="1" t="s">
+      <c r="AJ4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AP4" s="1" t="s">
+      <c r="AQ4" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AT4" s="1" t="s">
+      <c r="AU4" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="AV4" s="1" t="s">
+      <c r="AW4" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="AX4" s="1" t="s">
+      <c r="AY4" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="AY4" s="1" t="s">
+      <c r="AZ4" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="AZ4" s="1" t="s">
+      <c r="BA4" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="BA4" s="1" t="s">
+      <c r="BB4" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="BB4" s="1" t="s">
+      <c r="BC4" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="BC4" s="1" t="s">
+      <c r="BD4" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="BD4" s="1" t="s">
+      <c r="BE4" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="BE4" s="1" t="s">
+      <c r="BF4" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="BF4" s="1" t="s">
+      <c r="BG4" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="BI4" s="1" t="s">
+      <c r="BJ4" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="BO4" s="1" t="s">
+      <c r="BP4" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BP4" s="1" t="s">
+      <c r="BQ4" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="BQ4" s="1" t="s">
+      <c r="BR4" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:74" s="1" customFormat="1">
+    <row r="5" spans="1:75" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>121</v>
@@ -3190,135 +3208,138 @@
         <v>65</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AE5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AF5" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AL5" s="1" t="s">
+      <c r="AM5" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AM5" s="1" t="s">
+      <c r="AN5" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AO5" s="1" t="s">
+      <c r="AP5" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="AP5" s="1" t="s">
+      <c r="AQ5" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="AT5" s="1" t="s">
+      <c r="AU5" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="AV5" s="1" t="s">
+      <c r="AW5" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="AX5" s="1" t="s">
+      <c r="AY5" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="AY5" s="1" t="s">
+      <c r="AZ5" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="AZ5" s="1" t="s">
+      <c r="BA5" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="BA5" s="1" t="s">
+      <c r="BB5" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="BB5" s="1" t="s">
+      <c r="BC5" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="BC5" s="1" t="s">
+      <c r="BD5" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="BD5" s="1" t="s">
+      <c r="BE5" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="BE5" s="1" t="s">
+      <c r="BF5" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="BF5" s="1" t="s">
+      <c r="BG5" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="BG5" s="1" t="s">
+      <c r="BH5" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="BI5" s="1" t="s">
+      <c r="BJ5" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="BJ5" s="1" t="s">
+      <c r="BK5" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="BK5" s="1" t="s">
+      <c r="BL5" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="BL5" s="1" t="s">
+      <c r="BM5" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="BO5" s="1" t="s">
+      <c r="BP5" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BP5" s="1" t="s">
+      <c r="BQ5" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BQ5" s="1" t="s">
+      <c r="BR5" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BU5" s="1" t="s">
+      <c r="BV5" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:74" s="1" customFormat="1">
+    <row r="6" spans="1:75" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>121</v>
@@ -3342,141 +3363,144 @@
         <v>164</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L6" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>-999</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>0</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AF6" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AI6" s="1" t="s">
+      <c r="AJ6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AK6" s="1" t="s">
+      <c r="AL6" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="AL6" s="1" t="s">
+      <c r="AM6" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="AM6" s="1" t="s">
+      <c r="AN6" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="AP6" s="1" t="s">
+      <c r="AQ6" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="AQ6" s="1" t="s">
+      <c r="AR6" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="AT6" s="1" t="s">
+      <c r="AU6" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="AV6" s="1" t="s">
+      <c r="AW6" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AW6" s="1" t="s">
+      <c r="AX6" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="AX6" s="1" t="s">
+      <c r="AY6" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AY6" s="1" t="s">
+      <c r="AZ6" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="AZ6" s="1" t="s">
+      <c r="BA6" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="BA6" s="1" t="s">
+      <c r="BB6" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="BB6" s="1" t="s">
+      <c r="BC6" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="BC6" s="1" t="s">
+      <c r="BD6" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="BD6" s="1" t="s">
+      <c r="BE6" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="BE6" s="1" t="s">
+      <c r="BF6" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="BF6" s="1" t="s">
+      <c r="BG6" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BG6" s="1" t="s">
+      <c r="BH6" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="BI6" s="1" t="s">
+      <c r="BJ6" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BJ6" s="1" t="s">
+      <c r="BK6" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="BK6" s="1" t="s">
+      <c r="BL6" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="BN6" s="1" t="s">
+      <c r="BO6" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="BO6" s="1" t="s">
+      <c r="BP6" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BP6" s="1" t="s">
+      <c r="BQ6" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BQ6" s="1" t="s">
+      <c r="BR6" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BT6" s="1" t="s">
+      <c r="BU6" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="BU6" s="1" t="s">
+      <c r="BV6" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:74" s="1" customFormat="1">
+    <row r="7" spans="1:75" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>121</v>
@@ -3500,141 +3524,144 @@
         <v>164</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>-999</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>0</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AB7" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AC7" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AE7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AF7" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AI7" s="1" t="s">
+      <c r="AJ7" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AK7" s="1" t="s">
+      <c r="AL7" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="AL7" s="1" t="s">
+      <c r="AM7" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="AM7" s="1" t="s">
+      <c r="AN7" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="AP7" s="1" t="s">
+      <c r="AQ7" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="AQ7" s="1" t="s">
+      <c r="AR7" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="AT7" s="1" t="s">
+      <c r="AU7" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="AV7" s="1" t="s">
+      <c r="AW7" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AW7" s="1" t="s">
+      <c r="AX7" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="AX7" s="1" t="s">
+      <c r="AY7" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AY7" s="1" t="s">
+      <c r="AZ7" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="AZ7" s="1" t="s">
+      <c r="BA7" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="BA7" s="1" t="s">
+      <c r="BB7" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="BB7" s="1" t="s">
+      <c r="BC7" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="BC7" s="1" t="s">
+      <c r="BD7" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="BD7" s="1" t="s">
+      <c r="BE7" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="BE7" s="1" t="s">
+      <c r="BF7" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="BF7" s="1" t="s">
+      <c r="BG7" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BG7" s="1" t="s">
+      <c r="BH7" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="BI7" s="1" t="s">
+      <c r="BJ7" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BJ7" s="1" t="s">
+      <c r="BK7" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="BK7" s="1" t="s">
+      <c r="BL7" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="BN7" s="1" t="s">
+      <c r="BO7" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="BO7" s="1" t="s">
+      <c r="BP7" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BP7" s="1" t="s">
+      <c r="BQ7" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BQ7" s="1" t="s">
+      <c r="BR7" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BT7" s="1" t="s">
+      <c r="BU7" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="BU7" s="1" t="s">
+      <c r="BV7" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:74" s="1" customFormat="1">
+    <row r="8" spans="1:75" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>121</v>
@@ -3658,144 +3685,147 @@
         <v>166</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>-999</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>0</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AB8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AC8" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AF8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AI8" s="1" t="s">
+      <c r="AJ8" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AK8" s="1" t="s">
+      <c r="AL8" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="AL8" s="1" t="s">
+      <c r="AM8" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="AM8" s="1" t="s">
+      <c r="AN8" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="AP8" s="1" t="s">
+      <c r="AQ8" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="AQ8" s="1" t="s">
+      <c r="AR8" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="AT8" s="1" t="s">
+      <c r="AU8" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="AV8" s="1" t="s">
+      <c r="AW8" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AW8" s="1" t="s">
+      <c r="AX8" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="AX8" s="1" t="s">
+      <c r="AY8" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AY8" s="1" t="s">
+      <c r="AZ8" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="AZ8" s="1" t="s">
+      <c r="BA8" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="BA8" s="1" t="s">
+      <c r="BB8" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="BB8" s="1" t="s">
+      <c r="BC8" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="BC8" s="1" t="s">
+      <c r="BD8" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="BD8" s="1" t="s">
+      <c r="BE8" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="BE8" s="1" t="s">
+      <c r="BF8" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="BF8" s="1" t="s">
+      <c r="BG8" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BG8" s="1" t="s">
+      <c r="BH8" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="BI8" s="1" t="s">
+      <c r="BJ8" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BJ8" s="1" t="s">
+      <c r="BK8" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="BK8" s="1" t="s">
+      <c r="BL8" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="BN8" s="1" t="s">
+      <c r="BO8" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="BO8" s="1" t="s">
+      <c r="BP8" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BP8" s="1" t="s">
+      <c r="BQ8" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BQ8" s="1" t="s">
+      <c r="BR8" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BT8" s="1" t="s">
+      <c r="BU8" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="BU8" s="1" t="s">
+      <c r="BV8" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:74" s="1" customFormat="1">
+    <row r="9" spans="1:75" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>121</v>
@@ -3819,147 +3849,150 @@
         <v>168</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L9" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>-999</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>0</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="Y9" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="AA9" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AA9" s="1" t="s">
+      <c r="AB9" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AB9" s="1" t="s">
+      <c r="AC9" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AD9" s="1" t="s">
+      <c r="AE9" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AE9" s="1" t="s">
+      <c r="AF9" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AI9" s="1" t="s">
+      <c r="AJ9" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AK9" s="1" t="s">
+      <c r="AL9" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="AL9" s="1" t="s">
+      <c r="AM9" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="AM9" s="1" t="s">
+      <c r="AN9" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="AP9" s="1" t="s">
+      <c r="AQ9" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="AQ9" s="1" t="s">
+      <c r="AR9" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="AT9" s="1" t="s">
+      <c r="AU9" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="AV9" s="1" t="s">
+      <c r="AW9" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AW9" s="1" t="s">
+      <c r="AX9" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="AX9" s="1" t="s">
+      <c r="AY9" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AY9" s="1" t="s">
+      <c r="AZ9" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="AZ9" s="1" t="s">
+      <c r="BA9" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="BA9" s="1" t="s">
+      <c r="BB9" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="BB9" s="1" t="s">
+      <c r="BC9" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="BC9" s="1" t="s">
+      <c r="BD9" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="BD9" s="1" t="s">
+      <c r="BE9" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="BE9" s="1" t="s">
+      <c r="BF9" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="BF9" s="1" t="s">
+      <c r="BG9" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BG9" s="1" t="s">
+      <c r="BH9" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="BI9" s="1" t="s">
+      <c r="BJ9" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BJ9" s="1" t="s">
+      <c r="BK9" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="BK9" s="1" t="s">
+      <c r="BL9" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="BN9" s="1" t="s">
+      <c r="BO9" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="BO9" s="1" t="s">
+      <c r="BP9" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BP9" s="1" t="s">
+      <c r="BQ9" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BQ9" s="1" t="s">
+      <c r="BR9" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BT9" s="1" t="s">
+      <c r="BU9" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="BU9" s="1" t="s">
+      <c r="BV9" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:74" s="5" customFormat="1">
+    <row r="10" spans="1:75" s="5" customFormat="1">
       <c r="A10" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>121</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>1</v>
@@ -3974,48 +4007,51 @@
         <v>59</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="N10" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="O10" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="R10" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="S10" s="5" t="s">
-        <v>380</v>
-      </c>
       <c r="T10" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="AC10" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD10" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AD10" s="5" t="s">
+      <c r="AE10" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AE10" s="5" t="s">
+      <c r="AF10" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="AF10" s="5" t="s">
+      <c r="AG10" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:74" s="1" customFormat="1">
+    <row r="11" spans="1:75" s="1" customFormat="1">
       <c r="A11" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
@@ -4030,105 +4066,108 @@
         <v>59</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="N11" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S11" s="5" t="s">
-        <v>380</v>
-      </c>
       <c r="T11" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="AC11" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD11" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AD11" s="1" t="s">
+      <c r="AE11" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE11" s="1" t="s">
+      <c r="AF11" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="AI11" s="1" t="s">
+      <c r="AJ11" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AL11" s="1" t="s">
+      <c r="AM11" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AM11" s="1" t="s">
+      <c r="AN11" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AO11" s="1" t="s">
+      <c r="AP11" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="AP11" s="1" t="s">
+      <c r="AQ11" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AW11" s="1" t="s">
+      <c r="AX11" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="AX11" s="1" t="s">
+      <c r="AY11" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AZ11" s="1" t="s">
+      <c r="BA11" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="BA11" s="1" t="s">
+      <c r="BB11" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="BB11" s="1" t="s">
+      <c r="BC11" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="BC11" s="1" t="s">
+      <c r="BD11" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="BE11" s="1" t="s">
+      <c r="BF11" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="BF11" s="1" t="s">
+      <c r="BG11" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="BG11" s="1" t="s">
+      <c r="BH11" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="BI11" s="1" t="s">
+      <c r="BJ11" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="BJ11" s="1" t="s">
+      <c r="BK11" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="BK11" s="1" t="s">
+      <c r="BL11" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="BL11" s="1" t="s">
+      <c r="BM11" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="BP11" s="1" t="s">
+      <c r="BQ11" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="BQ11" s="1" t="s">
+      <c r="BR11" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="12" spans="1:74" s="1" customFormat="1">
+    <row r="12" spans="1:75" s="1" customFormat="1">
       <c r="A12" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E12" s="6">
         <v>320619980225</v>
@@ -4143,45 +4182,48 @@
         <v>59</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L12" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S12" s="5" t="s">
-        <v>380</v>
-      </c>
       <c r="T12" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="AC12" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD12" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AD12" s="1" t="s">
+      <c r="AE12" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE12" s="1" t="s">
+      <c r="AF12" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AF12" s="1" t="s">
+      <c r="AG12" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AG12" s="1" t="s">
+      <c r="AH12" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="1:74" s="5" customFormat="1">
+    <row r="13" spans="1:75" s="5" customFormat="1">
       <c r="A13" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>121</v>
@@ -4205,66 +4247,69 @@
         <v>71</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="L13" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="M13" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="N13" s="5">
+      <c r="O13" s="5">
         <v>-999</v>
       </c>
-      <c r="P13" s="5" t="s">
-        <v>378</v>
-      </c>
       <c r="Q13" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="R13" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="T13" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="U13" s="5" t="s">
+      <c r="V13" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="V13" s="5" t="s">
+      <c r="W13" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="W13" s="5" t="s">
+      <c r="X13" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="X13" s="5" t="s">
+      <c r="Y13" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="Z13" s="5" t="s">
+      <c r="AA13" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AA13" s="5" t="s">
+      <c r="AB13" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AB13" s="5" t="s">
+      <c r="AC13" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AC13" s="5" t="s">
+      <c r="AD13" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AD13" s="5" t="s">
+      <c r="AE13" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AE13" s="5" t="s">
+      <c r="AF13" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="AF13" s="5" t="s">
+      <c r="AG13" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="AG13" s="5" t="s">
+      <c r="AH13" s="5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="14" spans="1:74" s="1" customFormat="1">
+    <row r="14" spans="1:75" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>121</v>
@@ -4288,126 +4333,129 @@
         <v>68</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L14" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>-999</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="V14" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="W14" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="X14" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="Y14" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="Z14" s="1" t="s">
+      <c r="AA14" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AA14" s="1" t="s">
+      <c r="AB14" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AB14" s="1" t="s">
+      <c r="AC14" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AC14" s="1" t="s">
+      <c r="AD14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AD14" s="1" t="s">
+      <c r="AE14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AE14" s="1" t="s">
+      <c r="AF14" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AK14" s="1" t="s">
+      <c r="AL14" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="AL14" s="1" t="s">
+      <c r="AM14" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="AM14" s="1" t="s">
+      <c r="AN14" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="AP14" s="1" t="s">
+      <c r="AQ14" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AV14" s="1" t="s">
+      <c r="AW14" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="AX14" s="1" t="s">
+      <c r="AY14" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="AZ14" s="1" t="s">
+      <c r="BA14" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="BA14" s="1" t="s">
+      <c r="BB14" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="BB14" s="1" t="s">
+      <c r="BC14" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="BC14" s="1" t="s">
+      <c r="BD14" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="BD14" s="1" t="s">
+      <c r="BE14" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="BE14" s="1" t="s">
+      <c r="BF14" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="BF14" s="1" t="s">
+      <c r="BG14" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="BG14" s="1" t="s">
+      <c r="BH14" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="BI14" s="1" t="s">
+      <c r="BJ14" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="BJ14" s="1" t="s">
+      <c r="BK14" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="BK14" s="1" t="s">
+      <c r="BL14" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="BO14" s="1" t="s">
+      <c r="BP14" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="BP14" s="1" t="s">
+      <c r="BQ14" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="BQ14" s="1" t="s">
+      <c r="BR14" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="BT14" s="1" t="s">
+      <c r="BU14" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="BU14" s="1" t="s">
+      <c r="BV14" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="15" spans="1:74" s="1" customFormat="1">
+    <row r="15" spans="1:75" s="1" customFormat="1">
       <c r="A15" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>121</v>
@@ -4431,66 +4479,69 @@
         <v>71</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="L15" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <v>-999</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="T15" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="V15" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="W15" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="X15" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="Y15" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="AA15" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AA15" s="1" t="s">
+      <c r="AB15" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AB15" s="1" t="s">
+      <c r="AC15" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AC15" s="1" t="s">
+      <c r="AD15" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AD15" s="1" t="s">
+      <c r="AE15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AE15" s="1" t="s">
+      <c r="AF15" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AF15" s="1" t="s">
+      <c r="AG15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AG15" s="1" t="s">
+      <c r="AH15" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="16" spans="1:74" s="1" customFormat="1">
+    <row r="16" spans="1:75" s="1" customFormat="1">
       <c r="A16" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>121</v>
@@ -4517,126 +4568,129 @@
         <v>78</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L16" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>-9999</v>
       </c>
-      <c r="O16" s="1">
+      <c r="P16" s="1">
         <v>-8888</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="U16" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="V16" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="X16" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="Y16" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="Z16" s="1" t="s">
+      <c r="AA16" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AA16" s="1" t="s">
+      <c r="AB16" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AB16" s="1" t="s">
+      <c r="AC16" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AC16" s="1" t="s">
+      <c r="AD16" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AD16" s="1" t="s">
+      <c r="AE16" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AE16" s="1" t="s">
+      <c r="AF16" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AI16" s="1" t="s">
+      <c r="AJ16" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AL16" s="1" t="s">
+      <c r="AM16" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AM16" s="1" t="s">
+      <c r="AN16" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AP16" s="1" t="s">
+      <c r="AQ16" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AS16" s="1" t="s">
+      <c r="AT16" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="AX16" s="1" t="s">
+      <c r="AY16" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AZ16" s="1" t="s">
+      <c r="BA16" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="BA16" s="1" t="s">
+      <c r="BB16" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="BB16" s="1" t="s">
+      <c r="BC16" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="BC16" s="1" t="s">
+      <c r="BD16" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="BD16" s="1" t="s">
+      <c r="BE16" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="BE16" s="1" t="s">
+      <c r="BF16" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="BF16" s="1" t="s">
+      <c r="BG16" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BG16" s="7" t="s">
+      <c r="BH16" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="BI16" s="1" t="s">
+      <c r="BJ16" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BN16" s="1" t="s">
+      <c r="BO16" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="BO16" s="1" t="s">
+      <c r="BP16" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BP16" s="1" t="s">
+      <c r="BQ16" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BQ16" s="1" t="s">
+      <c r="BR16" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BT16" s="1" t="s">
+      <c r="BU16" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="BU16" s="1" t="s">
+      <c r="BV16" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="BV16" s="1" t="s">
+      <c r="BW16" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:74" s="5" customFormat="1">
+    <row r="17" spans="1:75" s="5" customFormat="1">
       <c r="A17" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>122</v>
@@ -4663,129 +4717,132 @@
         <v>79</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="L17" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="M17" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="N17" s="5">
+      <c r="O17" s="5">
         <v>-9999</v>
       </c>
-      <c r="O17" s="5">
+      <c r="P17" s="5">
         <v>-8888</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="R17" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="S17" s="5" t="s">
+      <c r="T17" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="U17" s="5" t="s">
+      <c r="V17" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="V17" s="5" t="s">
-        <v>376</v>
-      </c>
       <c r="W17" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="X17" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="X17" s="5" t="s">
+      <c r="Y17" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="Z17" s="5" t="s">
+      <c r="AA17" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AA17" s="5" t="s">
+      <c r="AB17" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AB17" s="5" t="s">
+      <c r="AC17" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AD17" s="5" t="s">
+      <c r="AE17" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AE17" s="5" t="s">
+      <c r="AF17" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="AI17" s="5" t="s">
+      <c r="AJ17" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AK17" s="5" t="s">
+      <c r="AL17" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="AL17" s="5" t="s">
+      <c r="AM17" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="AM17" s="5" t="s">
+      <c r="AN17" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="AP17" s="5" t="s">
+      <c r="AQ17" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="AQ17" s="5" t="s">
+      <c r="AR17" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="AS17" s="5" t="s">
+      <c r="AT17" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="AX17" s="5" t="s">
+      <c r="AY17" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="AZ17" s="5" t="s">
+      <c r="BA17" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="BA17" s="5" t="s">
+      <c r="BB17" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="BB17" s="5" t="s">
+      <c r="BC17" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="BC17" s="5" t="s">
+      <c r="BD17" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="BD17" s="5" t="s">
+      <c r="BE17" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="BE17" s="5" t="s">
+      <c r="BF17" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="BF17" s="5" t="s">
+      <c r="BG17" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="BG17" s="5" t="s">
+      <c r="BH17" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="BI17" s="5" t="s">
+      <c r="BJ17" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="BN17" s="5" t="s">
+      <c r="BO17" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="BO17" s="5" t="s">
+      <c r="BP17" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="BP17" s="5" t="s">
+      <c r="BQ17" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="BQ17" s="5" t="s">
+      <c r="BR17" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="BT17" s="5" t="s">
+      <c r="BU17" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="BU17" s="5" t="s">
+      <c r="BV17" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="BV17" s="5" t="s">
+      <c r="BW17" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:74" s="1" customFormat="1">
+    <row r="18" spans="1:75" s="1" customFormat="1">
       <c r="A18" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>122</v>
@@ -4812,63 +4869,66 @@
         <v>79</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L18" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1">
         <v>-999</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="R18" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>154</v>
       </c>
       <c r="U18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="V18" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="W18" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="X18" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="X18" s="1" t="s">
+      <c r="Y18" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="Z18" s="1" t="s">
+      <c r="AA18" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AA18" s="1" t="s">
+      <c r="AB18" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AB18" s="1" t="s">
+      <c r="AC18" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AD18" s="1" t="s">
+      <c r="AE18" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AF18" s="1" t="s">
+      <c r="AG18" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AG18" s="1" t="s">
+      <c r="AH18" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="19" spans="1:74" s="5" customFormat="1">
+    <row r="19" spans="1:75" s="5" customFormat="1">
       <c r="A19" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>122</v>
@@ -4895,129 +4955,132 @@
         <v>79</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="L19" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="M19" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="N19" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="N19" s="5">
+      <c r="O19" s="5">
         <v>-9999</v>
       </c>
-      <c r="O19" s="5">
+      <c r="P19" s="5">
         <v>1E-4</v>
       </c>
-      <c r="P19" s="5" t="s">
+      <c r="Q19" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="Q19" s="5" t="s">
+      <c r="R19" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="U19" s="5" t="s">
+      <c r="V19" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="V19" s="5" t="s">
+      <c r="W19" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="W19" s="5" t="s">
+      <c r="X19" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="X19" s="5" t="s">
+      <c r="Y19" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="Z19" s="5" t="s">
+      <c r="AA19" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AA19" s="5" t="s">
+      <c r="AB19" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="AB19" s="5" t="s">
+      <c r="AC19" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AE19" s="5" t="s">
+      <c r="AF19" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="AI19" s="5" t="s">
+      <c r="AJ19" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AK19" s="5" t="s">
+      <c r="AL19" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="AL19" s="5" t="s">
+      <c r="AM19" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="AM19" s="5" t="s">
+      <c r="AN19" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="AP19" s="5" t="s">
+      <c r="AQ19" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="AQ19" s="5" t="s">
+      <c r="AR19" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="AS19" s="5" t="s">
+      <c r="AT19" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="AX19" s="5" t="s">
+      <c r="AY19" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="AZ19" s="5" t="s">
+      <c r="BA19" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="BA19" s="5" t="s">
+      <c r="BB19" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="BB19" s="5" t="s">
+      <c r="BC19" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="BC19" s="5" t="s">
+      <c r="BD19" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="BD19" s="5" t="s">
+      <c r="BE19" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="BE19" s="5" t="s">
+      <c r="BF19" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="BF19" s="5" t="s">
+      <c r="BG19" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="BG19" s="5" t="s">
+      <c r="BH19" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="BI19" s="5" t="s">
+      <c r="BJ19" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="BN19" s="5" t="s">
+      <c r="BO19" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="BO19" s="5" t="s">
+      <c r="BP19" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="BP19" s="5" t="s">
+      <c r="BQ19" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="BQ19" s="5" t="s">
+      <c r="BR19" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="BT19" s="5" t="s">
+      <c r="BU19" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="BU19" s="5" t="s">
+      <c r="BV19" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="BV19" s="5" t="s">
+      <c r="BW19" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:74" s="1" customFormat="1">
+    <row r="20" spans="1:75" s="1" customFormat="1">
       <c r="A20" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>322</v>
@@ -5029,319 +5092,328 @@
         <v>169</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="I20" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>79</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="N20" s="1">
+      <c r="M20" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="O20" s="1">
         <v>-9999</v>
       </c>
-      <c r="O20" s="1">
+      <c r="P20" s="1">
         <v>-8888</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="R20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="T20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="V20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="W20" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="X20" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="Y20" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="Z20" s="1" t="s">
+      <c r="AA20" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AA20" s="1" t="s">
+      <c r="AB20" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AB20" s="1" t="s">
+      <c r="AC20" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AD20" s="1" t="s">
+      <c r="AE20" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AE20" s="1" t="s">
+      <c r="AF20" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AI20" s="1" t="s">
+      <c r="AJ20" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AK20" s="1" t="s">
+      <c r="AL20" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="AL20" s="1" t="s">
+      <c r="AM20" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AM20" s="1" t="s">
+      <c r="AN20" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AP20" s="1" t="s">
+      <c r="AQ20" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="AQ20" s="1" t="s">
+      <c r="AR20" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="AS20" s="1" t="s">
+      <c r="AT20" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="AX20" s="1" t="s">
+      <c r="AY20" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AZ20" s="1" t="s">
+      <c r="BA20" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="BA20" s="1" t="s">
+      <c r="BB20" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="BB20" s="1" t="s">
+      <c r="BC20" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="BC20" s="1" t="s">
+      <c r="BD20" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="BD20" s="1" t="s">
+      <c r="BE20" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="BE20" s="1" t="s">
+      <c r="BF20" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="BF20" s="1" t="s">
+      <c r="BG20" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BG20" s="1" t="s">
+      <c r="BH20" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="BI20" s="1" t="s">
+      <c r="BJ20" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BN20" s="1" t="s">
+      <c r="BO20" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="BO20" s="1" t="s">
+      <c r="BP20" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BP20" s="1" t="s">
+      <c r="BQ20" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BQ20" s="1" t="s">
+      <c r="BR20" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BT20" s="1" t="s">
+      <c r="BU20" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="BU20" s="1" t="s">
+      <c r="BV20" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="BV20" s="1" t="s">
+      <c r="BW20" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:74" s="1" customFormat="1">
+    <row r="21" spans="1:75" s="1" customFormat="1">
       <c r="A21" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>134</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="K21" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q21" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="T21" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AJ21" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="U21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA21" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE21" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AI21" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="AL21" s="1" t="s">
+      <c r="AM21" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AM21" s="1" t="s">
+      <c r="AN21" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AP21" s="1" t="s">
+      <c r="AQ21" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AR21" s="1" t="s">
+      <c r="AS21" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="AZ21" s="1" t="s">
+      <c r="BA21" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="BA21" s="1" t="s">
+      <c r="BB21" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="BB21" s="1" t="s">
+      <c r="BC21" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="BC21" s="1" t="s">
+      <c r="BD21" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="BE21" s="1" t="s">
+      <c r="BF21" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="BK21" s="1" t="s">
+      <c r="BL21" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="BP21" s="1" t="s">
+      <c r="BQ21" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="BQ21" s="1" t="s">
+      <c r="BR21" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="22" spans="1:74" s="1" customFormat="1">
+    <row r="22" spans="1:75" s="1" customFormat="1">
       <c r="A22" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>134</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>353</v>
-      </c>
       <c r="K22" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L22" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T22" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="Q22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="S22" s="1" t="s">
+      <c r="AA22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD22" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="Z22" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC22" s="1" t="s">
+      <c r="AE22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG22" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="AD22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE22" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF22" s="1" t="s">
+      <c r="AH22" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="AG22" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="23" spans="1:74" s="1" customFormat="1">
+    </row>
+    <row r="23" spans="1:75" s="1" customFormat="1">
       <c r="A23" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>322</v>
@@ -5350,240 +5422,246 @@
         <v>52</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>123</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>76</v>
       </c>
       <c r="I23" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O23" s="1">
+        <v>-999</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL23" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AM23" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AN23" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ23" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AR23" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AU23" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="N23" s="1">
-        <v>-999</v>
-      </c>
-      <c r="O23" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA23" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE23" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI23" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK23" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="AL23" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="AM23" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="AP23" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="AQ23" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="AT23" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="AV23" s="1" t="s">
+      <c r="AW23" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="AX23" s="1" t="s">
+      <c r="AY23" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AZ23" s="1" t="s">
+      <c r="BA23" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="BA23" s="1" t="s">
+      <c r="BB23" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="BB23" s="1" t="s">
+      <c r="BC23" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="BC23" s="1" t="s">
+      <c r="BD23" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="BD23" s="1" t="s">
+      <c r="BE23" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="BE23" s="1" t="s">
+      <c r="BF23" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="BF23" s="1" t="s">
+      <c r="BG23" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BG23" s="1" t="s">
+      <c r="BH23" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="BI23" s="1" t="s">
+      <c r="BJ23" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BO23" s="1" t="s">
+      <c r="BP23" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BP23" s="1" t="s">
+      <c r="BQ23" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BQ23" s="1" t="s">
+      <c r="BR23" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BT23" s="1" t="s">
+      <c r="BU23" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="BU23" s="1" t="s">
+      <c r="BV23" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:74">
+    <row r="24" spans="1:75">
       <c r="A24" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>123</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="L24" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="O24" s="1">
+        <v>-999</v>
+      </c>
+      <c r="P24">
+        <v>1E-4</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T24" t="s">
+        <v>375</v>
+      </c>
+      <c r="V24" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="N24" s="1">
-        <v>-999</v>
-      </c>
-      <c r="O24">
-        <v>1E-4</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="S24" t="s">
-        <v>377</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="W24" s="1" t="s">
         <v>365</v>
       </c>
       <c r="X24" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AA24" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="Z24" s="1" t="s">
+      <c r="AB24" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="AA24" s="1" t="s">
+      <c r="AC24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD24" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="AB24" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC24" s="1" t="s">
+      <c r="AE24" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="AD24" s="1" t="s">
+      <c r="AF24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG24" t="s">
         <v>370</v>
       </c>
-      <c r="AE24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="25" spans="1:74">
+    </row>
+    <row r="25" spans="1:75">
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:74">
+    <row r="26" spans="1:75">
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:74">
+    <row r="27" spans="1:75">
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:74">
+    <row r="28" spans="1:75">
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:74">
+    <row r="29" spans="1:75">
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:74">
+    <row r="30" spans="1:75">
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:74">
+    <row r="31" spans="1:75">
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:74">
+    <row r="32" spans="1:75">
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="5:5">
@@ -5944,15 +6022,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F628FA597F3714429FB28B155BE7FB40" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="072d965ee4144b7352b1b9fa85ddc208">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e20472b3-c705-44f8-bba6-767e7adb5a1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4055c15dc2c3ab7669828420f152f0b" ns3:_="">
     <xsd:import namespace="e20472b3-c705-44f8-bba6-767e7adb5a1e"/>
@@ -6130,6 +6199,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F36667E2-7954-4E16-8F9D-F27CDF186C37}">
   <ds:schemaRefs>
@@ -6147,14 +6225,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5515A6BA-2F84-4DE9-99CA-C1D09E83DEB0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8EE8325-82A5-417F-8B27-94942DC034B5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6170,4 +6240,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5515A6BA-2F84-4DE9-99CA-C1D09E83DEB0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/product_data/processing_metadata/regression_test/PIG_meta_RT.xlsx
+++ b/product_data/processing_metadata/regression_test/PIG_meta_RT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/regression_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{1FB7BE7C-0CE7-49FD-AA4B-7CF1A48BED56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12740EC0-95BD-4129-ADE7-3A3D289E2893}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{1FB7BE7C-0CE7-49FD-AA4B-7CF1A48BED56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FE79FEE-9CCC-4551-A2C7-E49ED029D9E1}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{182192A8-E941-4269-BE15-A6758393A1A1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="427">
   <si>
     <t>EXPOCODE</t>
   </si>
@@ -285,12 +285,6 @@
   </si>
   <si>
     <t>norm@icess.ucsb.edu</t>
-  </si>
-  <si>
-    <t>Wright_etal_1991</t>
-  </si>
-  <si>
-    <t>JGOFS_1994_2</t>
   </si>
   <si>
     <t>PALMER_LTER</t>
@@ -570,9 +564,6 @@
     <t>10.1594/PANGAEA.898941</t>
   </si>
   <si>
-    <t>Knap_1996</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -1104,9 +1095,6 @@
     <t>Bridigare_2005</t>
   </si>
   <si>
-    <t>Lorenzen 1996</t>
-  </si>
-  <si>
     <t>ship_sta</t>
   </si>
   <si>
@@ -1318,6 +1306,18 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>Alvarez_2019</t>
+  </si>
+  <si>
+    <t>Wright_1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adapted JGOFS metod. </t>
+  </si>
+  <si>
+    <t>Lorenzen_1967</t>
   </si>
 </sst>
 </file>
@@ -2517,7 +2517,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2531,7 +2531,7 @@
   <sheetData>
     <row r="1" spans="1:75">
       <c r="A1" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>26</v>
@@ -2561,10 +2561,10 @@
         <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>33</v>
@@ -2585,13 +2585,13 @@
         <v>36</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>45</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>41</v>
@@ -2624,133 +2624,133 @@
         <v>47</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AG1" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AL1" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN1" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="AI1" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP1" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="AM1" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AR1" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="AQ1" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AY1" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="BA1" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="BB1" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BE1" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BF1" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BG1" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BH1" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BI1" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BK1" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BL1" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BM1" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BN1" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BO1" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="BM1" s="5" t="s">
+      <c r="BP1" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="BN1" s="5" t="s">
+      <c r="BQ1" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="BO1" s="5" t="s">
+      <c r="BR1" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="BP1" s="5" t="s">
+      <c r="BS1" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="BQ1" s="5" t="s">
+      <c r="BT1" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="BR1" s="5" t="s">
+      <c r="BU1" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="BS1" s="5" t="s">
+      <c r="BV1" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="BT1" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="BU1" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="BV1" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="BW1" s="5" t="s">
         <v>48</v>
@@ -2758,22 +2758,22 @@
     </row>
     <row r="2" spans="1:75" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>73</v>
@@ -2785,144 +2785,144 @@
         <v>74</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>177</v>
+        <v>423</v>
       </c>
       <c r="P2" s="1">
         <v>0</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="BK2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="AM2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BP2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AQ2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="BD2" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BR2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BV2" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="BU2" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="BV2" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:75" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>75</v>
@@ -2937,13 +2937,13 @@
         <v>78</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O3" s="1">
         <v>-9999</v>
@@ -2952,120 +2952,120 @@
         <v>-8888</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Y3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="Z3" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="AA3" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AF3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AJ3" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="AL3" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AM3" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AT3" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AN3" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="AY3" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="BA3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BE3" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BF3" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BG3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="BD3" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="BR3" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:75" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>62</v>
@@ -3074,132 +3074,132 @@
         <v>63</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="O4" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="V4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="W4" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="X4" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AU4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="BC4" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="AW4" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AY4" s="1" t="s">
+      <c r="BD4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BF4" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="AZ4" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="BA4" s="1" t="s">
+      <c r="BG4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BR4" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="BE4" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="BF4" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="BJ4" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="BP4" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="BQ4" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="BR4" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:75" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>62</v>
@@ -3208,168 +3208,168 @@
         <v>65</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="O5" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="V5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="W5" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="X5" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AD5" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AY5" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="AE5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AP5" s="1" t="s">
+      <c r="AZ5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="BA5" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="AQ5" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AU5" s="1" t="s">
+      <c r="BB5" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="BK5" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="BL5" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="AW5" s="1" t="s">
+      <c r="BM5" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="AY5" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="BC5" s="1" t="s">
+      <c r="BP5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="BQ5" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="BD5" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="BE5" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="BF5" s="1" t="s">
+      <c r="BR5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BV5" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="BH5" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="BJ5" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="BK5" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="BL5" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="BM5" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="BP5" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="BQ5" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="BR5" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="BV5" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:75" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L6" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="O6" s="1">
         <v>-999</v>
@@ -3378,159 +3378,159 @@
         <v>0</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AL6" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="BK6" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="BL6" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="AM6" s="1" t="s">
+      <c r="BO6" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="AN6" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="AW6" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="BC6" s="1" t="s">
+      <c r="BP6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BQ6" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="BD6" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="BE6" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BF6" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BG6" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="BH6" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="BJ6" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BK6" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="BL6" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="BO6" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="BP6" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BQ6" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="BR6" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="BU6" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="BV6" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:75" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="O7" s="1">
         <v>-999</v>
@@ -3539,159 +3539,159 @@
         <v>0</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AL7" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BF7" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BG7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BH7" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="BK7" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="BL7" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="AM7" s="1" t="s">
+      <c r="BO7" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="AN7" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="AW7" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AX7" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="BB7" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="BC7" s="1" t="s">
+      <c r="BP7" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BQ7" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="BD7" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="BE7" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BF7" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BG7" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="BH7" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="BJ7" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BK7" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="BL7" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="BO7" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="BP7" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BQ7" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="BR7" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="BU7" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="BV7" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:75" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="O8" s="1">
         <v>-999</v>
@@ -3700,162 +3700,162 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AL8" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AW8" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AZ8" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BC8" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BD8" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BE8" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BF8" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BG8" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BH8" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BJ8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="BK8" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="BL8" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="AM8" s="1" t="s">
+      <c r="BO8" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="AN8" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AQ8" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="AR8" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="AU8" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="AW8" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AX8" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AZ8" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BA8" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="BB8" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="BC8" s="1" t="s">
+      <c r="BP8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BQ8" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="BD8" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="BE8" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BF8" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BG8" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="BH8" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="BJ8" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BK8" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="BL8" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="BO8" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="BP8" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BQ8" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="BR8" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="BU8" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="BV8" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:75" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L9" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="O9" s="1">
         <v>-999</v>
@@ -3864,141 +3864,141 @@
         <v>0</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AL9" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AW9" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AZ9" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="BA9" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="BB9" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BC9" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BD9" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BE9" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BF9" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BG9" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BH9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BJ9" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="BK9" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="BL9" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="AM9" s="1" t="s">
+      <c r="BO9" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="AN9" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AQ9" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="AR9" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="AU9" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="AW9" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AX9" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AY9" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AZ9" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BA9" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="BB9" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="BC9" s="1" t="s">
+      <c r="BP9" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BQ9" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="BD9" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="BE9" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BF9" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BG9" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="BH9" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="BJ9" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BK9" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="BL9" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="BO9" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="BP9" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BQ9" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="BR9" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="BU9" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="BV9" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:75" s="5" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>60</v>
@@ -4007,57 +4007,57 @@
         <v>59</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="O10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="R10" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="R10" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="T10" s="5" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD10" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AE10" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AF10" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG10" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:75" s="1" customFormat="1">
       <c r="A11" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>58</v>
@@ -4066,114 +4066,114 @@
         <v>59</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="O11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="R11" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="T11" s="5" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AM11" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AX11" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AN11" s="1" t="s">
+      <c r="AY11" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="BA11" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="BB11" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="BC11" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AP11" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="AQ11" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AX11" s="1" t="s">
+      <c r="BD11" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="BF11" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="BG11" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BH11" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="BJ11" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="BK11" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="BL11" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="BM11" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="BQ11" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="AY11" s="1" t="s">
+      <c r="BR11" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="BA11" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="BB11" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="BC11" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="BD11" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="BF11" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="BG11" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="BH11" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="BJ11" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="BK11" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="BL11" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="BM11" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="BQ11" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="BR11" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:75" s="1" customFormat="1">
       <c r="A12" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E12" s="6">
         <v>320619980225</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>60</v>
@@ -4182,51 +4182,54 @@
         <v>59</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M12" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="R12" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="T12" s="5" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
+      </c>
+      <c r="BW12" s="1" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:75" s="5" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>50</v>
@@ -4235,7 +4238,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>69</v>
@@ -4247,72 +4250,72 @@
         <v>71</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O13" s="5">
         <v>-999</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AB13" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AC13" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AD13" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AE13" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AF13" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AG13" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH13" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:75" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>50</v>
@@ -4321,7 +4324,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>66</v>
@@ -4333,132 +4336,132 @@
         <v>68</v>
       </c>
       <c r="K14" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="O14" s="1">
         <v>-999</v>
       </c>
       <c r="Q14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="V14" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="R14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="W14" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AL14" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AM14" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AW14" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="AM14" s="1" t="s">
+      <c r="AY14" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="AN14" s="1" t="s">
+      <c r="BA14" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="BB14" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="BC14" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="BD14" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BE14" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="BF14" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="BG14" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="BH14" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BJ14" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="BK14" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="BL14" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="BP14" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="BQ14" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="BR14" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="BU14" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="BV14" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="AQ14" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="AW14" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="AY14" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="BA14" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="BB14" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="BC14" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="BD14" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="BE14" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="BF14" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="BG14" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="BH14" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="BJ14" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="BK14" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="BL14" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="BP14" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="BQ14" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="BR14" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="BU14" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="BV14" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:75" s="1" customFormat="1">
       <c r="A15" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>50</v>
@@ -4467,7 +4470,7 @@
         <v>15</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>69</v>
@@ -4479,81 +4482,81 @@
         <v>71</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O15" s="1">
         <v>-999</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH15" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:75" s="1" customFormat="1">
       <c r="A16" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>75</v>
@@ -4568,13 +4571,13 @@
         <v>78</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="O16" s="1">
         <v>-9999</v>
@@ -4583,126 +4586,126 @@
         <v>-8888</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="T16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="U16" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="U16" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="V16" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AF16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AJ16" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="AM16" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AN16" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AT16" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AN16" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="AQ16" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="AT16" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="AY16" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="BA16" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BB16" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="BC16" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BD16" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BE16" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="BB16" s="1" t="s">
+      <c r="BF16" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="BC16" s="1" t="s">
+      <c r="BG16" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BH16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="BJ16" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="BO16" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="BP16" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BQ16" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="BD16" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="BE16" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BF16" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BG16" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="BH16" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="BJ16" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BO16" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="BP16" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BQ16" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="BR16" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="BU16" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="BV16" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="BW16" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:75" s="5" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>80</v>
@@ -4717,13 +4720,13 @@
         <v>79</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="O17" s="5">
         <v>-9999</v>
@@ -4732,120 +4735,120 @@
         <v>-8888</v>
       </c>
       <c r="R17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="V17" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="T17" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="V17" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="W17" s="5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AB17" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AC17" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AE17" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AF17" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ17" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="AJ17" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="AL17" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AM17" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="AN17" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="AQ17" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="AR17" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="AT17" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="AN17" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="AQ17" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="AR17" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="AT17" s="5" t="s">
-        <v>317</v>
-      </c>
       <c r="AY17" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="BA17" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="BB17" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="BC17" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="BD17" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="BE17" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="BB17" s="5" t="s">
+      <c r="BF17" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="BC17" s="5" t="s">
+      <c r="BG17" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="BH17" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="BJ17" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="BO17" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="BP17" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="BQ17" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="BD17" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="BE17" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="BF17" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="BG17" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="BH17" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="BJ17" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="BO17" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="BP17" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="BQ17" s="5" t="s">
-        <v>224</v>
-      </c>
       <c r="BR17" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="BU17" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="BV17" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="BW17" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:75" s="1" customFormat="1">
       <c r="A18" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>52</v>
@@ -4854,7 +4857,7 @@
         <v>25</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>80</v>
@@ -4869,69 +4872,69 @@
         <v>79</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O18" s="1">
         <v>-999</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="X18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA18" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="Y18" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA18" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="AB18" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AH18" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:75" s="5" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>52</v>
@@ -4940,7 +4943,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>80</v>
@@ -4955,16 +4958,16 @@
         <v>79</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O19" s="5">
         <v>-9999</v>
@@ -4973,147 +4976,147 @@
         <v>1E-4</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="X19" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y19" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA19" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="Y19" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA19" s="5" t="s">
-        <v>150</v>
-      </c>
       <c r="AB19" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AC19" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ19" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="AJ19" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="AL19" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AM19" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="AN19" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="AQ19" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="AR19" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="AT19" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="AN19" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="AQ19" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="AR19" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="AT19" s="5" t="s">
-        <v>317</v>
-      </c>
       <c r="AY19" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="BA19" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="BB19" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="BC19" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="BD19" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="BE19" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="BB19" s="5" t="s">
+      <c r="BF19" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="BC19" s="5" t="s">
+      <c r="BG19" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="BH19" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="BJ19" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="BO19" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="BP19" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="BQ19" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="BD19" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="BE19" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="BF19" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="BG19" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="BH19" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="BJ19" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="BO19" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="BP19" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="BQ19" s="5" t="s">
-        <v>224</v>
-      </c>
       <c r="BR19" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="BU19" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="BV19" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="BW19" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:75" s="1" customFormat="1">
       <c r="A20" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>79</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="O20" s="1">
         <v>-9999</v>
@@ -5122,334 +5125,334 @@
         <v>-8888</v>
       </c>
       <c r="R20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="V20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="T20" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="W20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X20" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="X20" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="Y20" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AF20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AJ20" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="AL20" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AM20" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AN20" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AQ20" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AR20" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AY20" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="BA20" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BB20" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="BC20" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BD20" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BE20" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="BB20" s="1" t="s">
+      <c r="BF20" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="BC20" s="1" t="s">
+      <c r="BG20" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BH20" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BJ20" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="BO20" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="BP20" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BQ20" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="BD20" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="BE20" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BF20" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BG20" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="BH20" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="BJ20" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BO20" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="BP20" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BQ20" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="BR20" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="BU20" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="BV20" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="BW20" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:75" s="1" customFormat="1">
       <c r="A21" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="I21" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="R21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="V21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="T21" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="W21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="X21" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="Y21" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AF21" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AJ21" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AM21" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AN21" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ21" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AS21" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="BA21" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="BB21" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="BC21" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AQ21" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AS21" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="BA21" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="BB21" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="BC21" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="BD21" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="BF21" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="BQ21" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="BR21" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:75" s="1" customFormat="1">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD22" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="I22" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="M22" s="1" t="s">
+      <c r="AE22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="AH22" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="AA22" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD22" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="AE22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF22" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG22" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="AH22" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:75" s="1" customFormat="1">
       <c r="A23" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>76</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O23" s="1">
         <v>-999</v>
@@ -5458,141 +5461,141 @@
         <v>1E-4</v>
       </c>
       <c r="R23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="V23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="T23" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="W23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X23" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="X23" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="Y23" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AF23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AJ23" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="AL23" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AM23" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AN23" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AQ23" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AR23" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AU23" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AW23" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="AM23" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="AN23" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="AQ23" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="AR23" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="AU23" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="AW23" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="AY23" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="BA23" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BB23" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="BC23" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BD23" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BE23" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="BB23" s="1" t="s">
+      <c r="BF23" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="BC23" s="1" t="s">
+      <c r="BG23" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BH23" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BJ23" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="BP23" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BQ23" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="BD23" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="BE23" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BF23" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BG23" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="BH23" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="BJ23" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BP23" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BQ23" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="BR23" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="BU23" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="BV23" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:75">
       <c r="A24" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O24" s="1">
         <v>-999</v>
@@ -5601,43 +5604,43 @@
         <v>1E-4</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="T24" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="V24" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD24" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="AE24" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="X24" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="Y24" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="AA24" s="1" t="s">
+      <c r="AF24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG24" t="s">
         <v>366</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD24" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="AE24" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="AF24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:75">
@@ -5875,10 +5878,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5953,7 +5956,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:1">

--- a/product_data/processing_metadata/regression_test/PIG_meta_RT.xlsx
+++ b/product_data/processing_metadata/regression_test/PIG_meta_RT.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{1FB7BE7C-0CE7-49FD-AA4B-7CF1A48BED56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FE79FEE-9CCC-4551-A2C7-E49ED029D9E1}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{182192A8-E941-4269-BE15-A6758393A1A1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{182192A8-E941-4269-BE15-A6758393A1A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="3" r:id="rId1"/>
@@ -2517,7 +2517,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6025,6 +6025,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F628FA597F3714429FB28B155BE7FB40" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="072d965ee4144b7352b1b9fa85ddc208">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e20472b3-c705-44f8-bba6-767e7adb5a1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4055c15dc2c3ab7669828420f152f0b" ns3:_="">
     <xsd:import namespace="e20472b3-c705-44f8-bba6-767e7adb5a1e"/>
@@ -6202,15 +6211,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F36667E2-7954-4E16-8F9D-F27CDF186C37}">
   <ds:schemaRefs>
@@ -6228,6 +6228,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5515A6BA-2F84-4DE9-99CA-C1D09E83DEB0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8EE8325-82A5-417F-8B27-94942DC034B5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6243,12 +6251,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5515A6BA-2F84-4DE9-99CA-C1D09E83DEB0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/product_data/processing_metadata/regression_test/PIG_meta_RT.xlsx
+++ b/product_data/processing_metadata/regression_test/PIG_meta_RT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/regression_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{1FB7BE7C-0CE7-49FD-AA4B-7CF1A48BED56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FE79FEE-9CCC-4551-A2C7-E49ED029D9E1}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{1FB7BE7C-0CE7-49FD-AA4B-7CF1A48BED56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B378FC68-A649-4090-A7A5-6F5E5528E574}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{182192A8-E941-4269-BE15-A6758393A1A1}"/>
   </bookViews>
@@ -582,9 +582,6 @@
     <t>Chla_ide</t>
   </si>
   <si>
-    <t>Chla_ allom</t>
-  </si>
-  <si>
     <t>Chla_prime</t>
   </si>
   <si>
@@ -1318,6 +1315,9 @@
   </si>
   <si>
     <t>Lorenzen_1967</t>
+  </si>
+  <si>
+    <t>Chla_allom</t>
   </si>
 </sst>
 </file>
@@ -2515,9 +2515,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4672EF9E-F94B-4EA2-AAA3-F328B5444130}">
   <dimension ref="A1:BW93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AU19" sqref="AU19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2561,10 +2561,10 @@
         <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>33</v>
@@ -2624,7 +2624,7 @@
         <v>47</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG1" s="5" t="s">
         <v>176</v>
@@ -2633,13 +2633,13 @@
         <v>177</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AJ1" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK1" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>269</v>
       </c>
       <c r="AL1" s="5" t="s">
         <v>179</v>
@@ -2651,106 +2651,106 @@
         <v>180</v>
       </c>
       <c r="AO1" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="AP1" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="AQ1" s="5" t="s">
         <v>178</v>
       </c>
       <c r="AR1" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AS1" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AY1" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BA1" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BB1" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BE1" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BF1" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BG1" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BH1" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BI1" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BK1" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BL1" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BM1" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="BM1" s="5" t="s">
+      <c r="BN1" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="BN1" s="5" t="s">
+      <c r="BO1" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="BO1" s="5" t="s">
+      <c r="BP1" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="BP1" s="5" t="s">
+      <c r="BQ1" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="BQ1" s="5" t="s">
+      <c r="BR1" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="BR1" s="5" t="s">
+      <c r="BS1" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="BS1" s="5" t="s">
+      <c r="BT1" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="BT1" s="5" t="s">
+      <c r="BU1" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="BU1" s="5" t="s">
+      <c r="BV1" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="BV1" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="BW1" s="5" t="s">
         <v>48</v>
@@ -2761,7 +2761,7 @@
         <v>140</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>129</v>
@@ -2788,13 +2788,13 @@
         <v>174</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P2" s="1">
         <v>0</v>
@@ -2836,73 +2836,73 @@
         <v>109</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>114</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>178</v>
       </c>
       <c r="AX2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA2" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AY2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE2" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="BD2" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="BG2" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="BR2" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BU2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BV2" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="BV2" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:75" s="1" customFormat="1">
@@ -2910,7 +2910,7 @@
         <v>140</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>119</v>
@@ -2919,7 +2919,7 @@
         <v>52</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>121</v>
@@ -2937,10 +2937,10 @@
         <v>78</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>137</v>
@@ -2991,52 +2991,52 @@
         <v>110</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AM3" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AN3" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="AN3" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="AT3" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BA3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BB3" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BC3" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BD3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE3" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="BD3" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BF3" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BG3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="BG3" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="BR3" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BW3" s="1" t="s">
         <v>117</v>
@@ -3047,7 +3047,7 @@
         <v>140</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>119</v>
@@ -3056,7 +3056,7 @@
         <v>49</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>121</v>
@@ -3074,13 +3074,13 @@
         <v>63</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>85</v>
@@ -3128,52 +3128,52 @@
         <v>113</v>
       </c>
       <c r="AQ4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="BE4" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AU4" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AY4" s="1" t="s">
+      <c r="BF4" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="AZ4" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="BE4" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="BF4" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="BJ4" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="BP4" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="BQ4" s="1" t="s">
+      <c r="BR4" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="BR4" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:75" s="1" customFormat="1">
@@ -3181,7 +3181,7 @@
         <v>140</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>119</v>
@@ -3190,7 +3190,7 @@
         <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>121</v>
@@ -3208,13 +3208,13 @@
         <v>65</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>85</v>
@@ -3253,7 +3253,7 @@
         <v>128</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AE5" s="1" t="s">
         <v>98</v>
@@ -3265,73 +3265,73 @@
         <v>114</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AQ5" s="1" t="s">
         <v>178</v>
       </c>
       <c r="AU5" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AW5" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="AW5" s="1" t="s">
+      <c r="AY5" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="AY5" s="1" t="s">
+      <c r="AZ5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="BK5" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="BL5" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="AZ5" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="BD5" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="BE5" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="BF5" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="BH5" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BJ5" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="BK5" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="BL5" s="1" t="s">
+      <c r="BM5" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="BM5" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="BP5" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BQ5" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="BR5" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BV5" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:75" s="1" customFormat="1">
@@ -3339,7 +3339,7 @@
         <v>140</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>119</v>
@@ -3348,7 +3348,7 @@
         <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>121</v>
@@ -3363,13 +3363,13 @@
         <v>162</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O6" s="1">
         <v>-999</v>
@@ -3414,85 +3414,85 @@
         <v>154</v>
       </c>
       <c r="AL6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AM6" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="AM6" s="1" t="s">
+      <c r="AN6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BK6" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="AN6" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW6" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="BE6" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="BF6" s="1" t="s">
+      <c r="BL6" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="BO6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="BP6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BQ6" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="BG6" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="BH6" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BJ6" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="BK6" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="BL6" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="BO6" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="BP6" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BQ6" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="BR6" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BU6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="BV6" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="BV6" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:75" s="1" customFormat="1">
@@ -3500,7 +3500,7 @@
         <v>140</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>119</v>
@@ -3509,7 +3509,7 @@
         <v>53</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>121</v>
@@ -3524,13 +3524,13 @@
         <v>162</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O7" s="1">
         <v>-999</v>
@@ -3575,85 +3575,85 @@
         <v>154</v>
       </c>
       <c r="AL7" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AM7" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="AM7" s="1" t="s">
+      <c r="AN7" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BF7" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BG7" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BH7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BK7" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="AN7" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW7" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="AX7" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="BB7" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="BC7" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="BD7" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="BE7" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="BF7" s="1" t="s">
+      <c r="BL7" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="BO7" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="BP7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BQ7" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="BG7" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="BH7" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BJ7" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="BK7" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="BL7" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="BO7" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="BP7" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BQ7" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="BR7" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BU7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="BV7" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="BV7" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:75" s="1" customFormat="1">
@@ -3661,7 +3661,7 @@
         <v>140</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>119</v>
@@ -3670,7 +3670,7 @@
         <v>53</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>121</v>
@@ -3685,13 +3685,13 @@
         <v>164</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O8" s="1">
         <v>-999</v>
@@ -3739,85 +3739,85 @@
         <v>154</v>
       </c>
       <c r="AL8" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AM8" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="AM8" s="1" t="s">
+      <c r="AN8" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AW8" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AZ8" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="BC8" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="BD8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE8" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BF8" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BG8" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BH8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BJ8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BK8" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="AN8" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AQ8" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="AR8" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AU8" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW8" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="AX8" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AZ8" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="BA8" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="BB8" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="BC8" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="BD8" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="BE8" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="BF8" s="1" t="s">
+      <c r="BL8" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="BO8" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="BP8" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BQ8" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="BG8" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="BH8" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BJ8" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="BK8" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="BL8" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="BO8" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="BP8" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BQ8" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="BR8" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BU8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="BV8" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="BV8" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:75" s="1" customFormat="1">
@@ -3825,7 +3825,7 @@
         <v>140</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>119</v>
@@ -3849,13 +3849,13 @@
         <v>166</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O9" s="1">
         <v>-999</v>
@@ -3900,85 +3900,85 @@
         <v>154</v>
       </c>
       <c r="AL9" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AM9" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="AM9" s="1" t="s">
+      <c r="AN9" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AW9" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AZ9" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="BA9" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BB9" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="BC9" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="BD9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE9" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BF9" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BG9" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BH9" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BJ9" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BK9" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="AN9" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AQ9" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="AR9" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AU9" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW9" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="AX9" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AY9" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AZ9" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="BA9" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="BB9" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="BC9" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="BD9" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="BE9" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="BF9" s="1" t="s">
+      <c r="BL9" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="BO9" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="BP9" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BQ9" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="BG9" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="BH9" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BJ9" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="BK9" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="BL9" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="BO9" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="BP9" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BQ9" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="BR9" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BU9" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="BV9" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="BV9" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:75" s="5" customFormat="1">
@@ -3986,13 +3986,13 @@
         <v>140</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>119</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>1</v>
@@ -4007,13 +4007,13 @@
         <v>59</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>84</v>
@@ -4022,10 +4022,10 @@
         <v>86</v>
       </c>
       <c r="T10" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="U10" s="5" t="s">
         <v>374</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>375</v>
       </c>
       <c r="AD10" s="5" t="s">
         <v>95</v>
@@ -4045,13 +4045,13 @@
         <v>140</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
@@ -4066,13 +4066,13 @@
         <v>59</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L11" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>84</v>
@@ -4081,10 +4081,10 @@
         <v>86</v>
       </c>
       <c r="T11" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="U11" s="5" t="s">
         <v>374</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>375</v>
       </c>
       <c r="AD11" s="1" t="s">
         <v>95</v>
@@ -4093,67 +4093,67 @@
         <v>96</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AJ11" s="1" t="s">
         <v>112</v>
       </c>
       <c r="AM11" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AP11" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="AN11" s="1" t="s">
+      <c r="AQ11" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AX11" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY11" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="BA11" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="BB11" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="BC11" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="BD11" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="BF11" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BG11" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="BH11" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="BJ11" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="BK11" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="BL11" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="BM11" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="BQ11" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AP11" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="AQ11" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="AX11" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="AY11" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="BA11" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="BB11" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="BC11" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="BD11" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="BF11" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="BG11" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="BH11" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="BJ11" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="BK11" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="BL11" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="BM11" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="BQ11" s="1" t="s">
+      <c r="BR11" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="BR11" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:75" s="1" customFormat="1">
@@ -4161,13 +4161,13 @@
         <v>140</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E12" s="6">
         <v>320619980225</v>
@@ -4182,13 +4182,13 @@
         <v>59</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>84</v>
@@ -4197,10 +4197,10 @@
         <v>86</v>
       </c>
       <c r="T12" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="U12" s="5" t="s">
         <v>374</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>375</v>
       </c>
       <c r="AD12" s="1" t="s">
         <v>95</v>
@@ -4215,10 +4215,10 @@
         <v>106</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="BW12" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:75" s="5" customFormat="1">
@@ -4226,7 +4226,7 @@
         <v>140</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>119</v>
@@ -4250,10 +4250,10 @@
         <v>71</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>83</v>
@@ -4262,7 +4262,7 @@
         <v>-999</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R13" s="5" t="s">
         <v>87</v>
@@ -4304,7 +4304,7 @@
         <v>107</v>
       </c>
       <c r="AH13" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:75" s="1" customFormat="1">
@@ -4312,7 +4312,7 @@
         <v>140</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>119</v>
@@ -4336,13 +4336,13 @@
         <v>68</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O14" s="1">
         <v>-999</v>
@@ -4387,70 +4387,70 @@
         <v>109</v>
       </c>
       <c r="AL14" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AM14" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="AM14" s="1" t="s">
+      <c r="AN14" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="AN14" s="1" t="s">
+      <c r="AW14" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AY14" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="BA14" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="BB14" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="BC14" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BD14" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BE14" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="BF14" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="BG14" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BH14" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="BJ14" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="BK14" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="BL14" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="BP14" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="BQ14" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="BR14" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="BU14" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="AQ14" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="AW14" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="AY14" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="BA14" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="BB14" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="BC14" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="BD14" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="BE14" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="BF14" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="BG14" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="BH14" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="BJ14" s="1" t="s">
+      <c r="BV14" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="BK14" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="BL14" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="BP14" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="BQ14" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="BR14" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="BU14" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="BV14" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:75" s="1" customFormat="1">
@@ -4458,7 +4458,7 @@
         <v>140</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>119</v>
@@ -4482,10 +4482,10 @@
         <v>71</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>83</v>
@@ -4536,7 +4536,7 @@
         <v>107</v>
       </c>
       <c r="AH15" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:75" s="1" customFormat="1">
@@ -4544,7 +4544,7 @@
         <v>140</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>119</v>
@@ -4571,13 +4571,13 @@
         <v>78</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O16" s="1">
         <v>-9999</v>
@@ -4625,64 +4625,64 @@
         <v>110</v>
       </c>
       <c r="AM16" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AN16" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="AN16" s="1" t="s">
+      <c r="AQ16" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="AQ16" s="1" t="s">
+      <c r="AT16" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="AT16" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="AY16" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BA16" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BB16" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="BB16" s="1" t="s">
+      <c r="BC16" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="BC16" s="1" t="s">
+      <c r="BD16" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE16" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="BD16" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="BE16" s="1" t="s">
+      <c r="BF16" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="BF16" s="1" t="s">
+      <c r="BG16" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BH16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="BJ16" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BO16" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="BP16" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BQ16" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="BG16" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="BH16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="BJ16" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="BO16" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="BP16" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BQ16" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="BR16" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BU16" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="BV16" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="BV16" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="BW16" s="1" t="s">
         <v>118</v>
@@ -4693,7 +4693,7 @@
         <v>140</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>120</v>
@@ -4720,13 +4720,13 @@
         <v>79</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O17" s="5">
         <v>-9999</v>
@@ -4744,7 +4744,7 @@
         <v>89</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="X17" s="5" t="s">
         <v>94</v>
@@ -4771,70 +4771,70 @@
         <v>110</v>
       </c>
       <c r="AL17" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="AM17" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="AN17" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="AQ17" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="AR17" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="AM17" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="AN17" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="AQ17" s="5" t="s">
+      <c r="AT17" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="AR17" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="AT17" s="5" t="s">
-        <v>314</v>
-      </c>
       <c r="AY17" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BA17" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="BB17" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="BB17" s="5" t="s">
+      <c r="BC17" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="BC17" s="5" t="s">
+      <c r="BD17" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE17" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="BD17" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="BE17" s="5" t="s">
+      <c r="BF17" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="BF17" s="5" t="s">
+      <c r="BG17" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="BH17" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="BJ17" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="BO17" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="BP17" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="BQ17" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="BG17" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="BH17" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="BJ17" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="BO17" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="BP17" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="BQ17" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="BR17" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BU17" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="BV17" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="BV17" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="BW17" s="5" t="s">
         <v>118</v>
@@ -4845,7 +4845,7 @@
         <v>140</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>120</v>
@@ -4872,10 +4872,10 @@
         <v>79</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>150</v>
@@ -4923,7 +4923,7 @@
         <v>111</v>
       </c>
       <c r="AH18" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:75" s="5" customFormat="1">
@@ -4931,7 +4931,7 @@
         <v>140</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>120</v>
@@ -4958,13 +4958,13 @@
         <v>79</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>147</v>
@@ -5009,70 +5009,70 @@
         <v>110</v>
       </c>
       <c r="AL19" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="AM19" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="AN19" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="AQ19" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="AR19" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="AM19" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="AN19" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="AQ19" s="5" t="s">
+      <c r="AT19" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="AR19" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="AT19" s="5" t="s">
-        <v>314</v>
-      </c>
       <c r="AY19" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BA19" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="BB19" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="BB19" s="5" t="s">
+      <c r="BC19" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="BC19" s="5" t="s">
+      <c r="BD19" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE19" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="BD19" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="BE19" s="5" t="s">
+      <c r="BF19" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="BF19" s="5" t="s">
+      <c r="BG19" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="BH19" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="BJ19" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="BO19" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="BP19" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="BQ19" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="BG19" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="BH19" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="BJ19" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="BO19" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="BP19" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="BQ19" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="BR19" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BU19" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="BV19" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="BV19" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="BW19" s="5" t="s">
         <v>118</v>
@@ -5083,10 +5083,10 @@
         <v>140</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>52</v>
@@ -5095,28 +5095,28 @@
         <v>167</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="I20" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>79</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O20" s="1">
         <v>-9999</v>
@@ -5161,70 +5161,70 @@
         <v>110</v>
       </c>
       <c r="AL20" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AM20" s="1" t="s">
         <v>115</v>
       </c>
       <c r="AN20" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AQ20" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AR20" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AY20" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BA20" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BB20" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="BB20" s="1" t="s">
+      <c r="BC20" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="BC20" s="1" t="s">
+      <c r="BD20" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE20" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="BD20" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="BE20" s="1" t="s">
+      <c r="BF20" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="BF20" s="1" t="s">
+      <c r="BG20" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BH20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BJ20" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BO20" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="BP20" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BQ20" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="BG20" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="BH20" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BJ20" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="BO20" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="BP20" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BQ20" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="BR20" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BU20" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="BV20" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="BV20" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="BW20" s="1" t="s">
         <v>118</v>
@@ -5235,43 +5235,43 @@
         <v>140</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>132</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="K21" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>87</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>89</v>
@@ -5283,7 +5283,7 @@
         <v>94</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AA21" s="1" t="s">
         <v>104</v>
@@ -5301,46 +5301,46 @@
         <v>101</v>
       </c>
       <c r="AF21" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AJ21" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AM21" s="1" t="s">
         <v>116</v>
       </c>
       <c r="AN21" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AQ21" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AS21" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="BA21" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="BB21" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="BC21" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="BD21" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="BF21" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BL21" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="BQ21" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AQ21" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AS21" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="BA21" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="BB21" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="BC21" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="BD21" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="BF21" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="BL21" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="BQ21" s="1" t="s">
+      <c r="BR21" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="BR21" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:75" s="1" customFormat="1">
@@ -5348,43 +5348,43 @@
         <v>140</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>132</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>349</v>
-      </c>
       <c r="K22" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>87</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AA22" s="1" t="s">
         <v>104</v>
@@ -5396,7 +5396,7 @@
         <v>128</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AE22" s="1" t="s">
         <v>101</v>
@@ -5405,10 +5405,10 @@
         <v>108</v>
       </c>
       <c r="AG22" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH22" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="AH22" s="1" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:75" s="1" customFormat="1">
@@ -5416,40 +5416,40 @@
         <v>140</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>121</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>76</v>
       </c>
       <c r="I23" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="K23" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>147</v>
@@ -5497,70 +5497,70 @@
         <v>110</v>
       </c>
       <c r="AL23" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AM23" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AN23" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AQ23" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AR23" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AM23" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="AN23" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="AQ23" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="AR23" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="AU23" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AW23" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AY23" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BA23" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BB23" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="BB23" s="1" t="s">
+      <c r="BC23" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="BC23" s="1" t="s">
+      <c r="BD23" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE23" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="BD23" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="BE23" s="1" t="s">
+      <c r="BF23" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="BF23" s="1" t="s">
+      <c r="BG23" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BH23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BJ23" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BP23" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BQ23" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="BG23" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="BH23" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BJ23" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="BP23" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BQ23" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="BR23" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BU23" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="BV23" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="BV23" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:75">
@@ -5568,34 +5568,34 @@
         <v>140</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>121</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O24" s="1">
         <v>-999</v>
@@ -5607,40 +5607,40 @@
         <v>87</v>
       </c>
       <c r="T24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="V24" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="W24" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="X24" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA24" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="X24" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y24" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="AA24" s="1" t="s">
+      <c r="AB24" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="AC24" s="1" t="s">
         <v>128</v>
       </c>
       <c r="AD24" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="AE24" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="AE24" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="AF24" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AG24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:75">
@@ -6025,15 +6025,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F628FA597F3714429FB28B155BE7FB40" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="072d965ee4144b7352b1b9fa85ddc208">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e20472b3-c705-44f8-bba6-767e7adb5a1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4055c15dc2c3ab7669828420f152f0b" ns3:_="">
     <xsd:import namespace="e20472b3-c705-44f8-bba6-767e7adb5a1e"/>
@@ -6211,6 +6202,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F36667E2-7954-4E16-8F9D-F27CDF186C37}">
   <ds:schemaRefs>
@@ -6228,14 +6228,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5515A6BA-2F84-4DE9-99CA-C1D09E83DEB0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8EE8325-82A5-417F-8B27-94942DC034B5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6251,4 +6243,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5515A6BA-2F84-4DE9-99CA-C1D09E83DEB0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>